--- a/DataSheet/FOS5.xlsx
+++ b/DataSheet/FOS5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa\eclipse-workspace\BSA_MOBILE_FRAMEWORK\DataSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8DEC54-652A-442A-AD42-A65F8078830C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21524647-89A5-475A-BFF2-CA677BE76449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3091" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4076" uniqueCount="567">
   <si>
     <t>Si_No</t>
   </si>
@@ -1669,6 +1669,126 @@
   </si>
   <si>
     <t>(//android.view.View[@content-desc="Mobile Number"])[2]/android.view.View/android.widget.EditText</t>
+  </si>
+  <si>
+    <t>WAIT(20000)</t>
+  </si>
+  <si>
+    <t>(//android.view.View[@content-desc="Residential details"])[1]</t>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="Residency type"]/android.view.View/android.view.View</t>
+  </si>
+  <si>
+    <t>ResidentialDetails</t>
+  </si>
+  <si>
+    <t>Row House</t>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="Resident Stability"]/android.view.View/android.view.View</t>
+  </si>
+  <si>
+    <t>(//android.view.View[@content-desc="Documents upload"])[1]</t>
+  </si>
+  <si>
+    <t>PostSanctionDocumentUpload</t>
+  </si>
+  <si>
+    <t>(//android.widget.Button[@content-desc="Add New"])[1]</t>
+  </si>
+  <si>
+    <t>//android.widget.Button[@content-desc="Add New"]</t>
+  </si>
+  <si>
+    <t>(//android.view.View[@content-desc="CPV/FI Outcome"])[1]</t>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="Relationship of person met during verification"]</t>
+  </si>
+  <si>
+    <t>(//*[@class='android.view.View']/android.widget.EditText)[1]</t>
+  </si>
+  <si>
+    <t>FIRemarks</t>
+  </si>
+  <si>
+    <t>This is FI Remark</t>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="Name of the person met during FI"]/android.view.View/android.widget.EditText</t>
+  </si>
+  <si>
+    <t>NameOfPersonMetDuringFI</t>
+  </si>
+  <si>
+    <t>Mr Biswajit Sahoo</t>
+  </si>
+  <si>
+    <t>//android.widget.Button[@content-desc="Submit"]</t>
+  </si>
+  <si>
+    <t>//*[@class='android.widget.ScrollView']/android.view.View/android.widget.EditText</t>
+  </si>
+  <si>
+    <t>GeoTaggingDeviationRaised</t>
+  </si>
+  <si>
+    <t>Deviation Raise for Geo Tagging</t>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="CPV task completed"]</t>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="Repayment Schedule"]</t>
+  </si>
+  <si>
+    <t>//android.widget.Button[@content-desc="Generate Schedule"]</t>
+  </si>
+  <si>
+    <t>(//android.view.View[@content-desc="Repayment Schedule"])[2]</t>
+  </si>
+  <si>
+    <t>//android.view.View[contains(@content-desc,'Deviations &amp; Conditions')]</t>
+  </si>
+  <si>
+    <t>//android.view.View[contains(@content-desc,'Tab 2 of 3')]</t>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="Offer proposed"]</t>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="remarks1"]/android.widget.EditText</t>
+  </si>
+  <si>
+    <t>ApplicantDeviation</t>
+  </si>
+  <si>
+    <t>Applicant Deviation Raise</t>
+  </si>
+  <si>
+    <t>//android.widget.Button[@content-desc="Add"]</t>
+  </si>
+  <si>
+    <t>(//android.view.View[@content-desc="Applicant"])[1]</t>
+  </si>
+  <si>
+    <t>//android.view.View[contains(@content-desc,'Tab 3 of 3')]</t>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="remarks2"]/android.widget.EditText</t>
+  </si>
+  <si>
+    <t>ConditionDeviationReason</t>
+  </si>
+  <si>
+    <t>Condition Remark</t>
+  </si>
+  <si>
+    <t>(//android.view.View[@content-desc="Subject to Additional Document"])[2]</t>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="Case sent for approval"]</t>
   </si>
 </sst>
 </file>
@@ -2126,10 +2246,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O293"/>
+  <dimension ref="A1:O397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" zoomScale="74" workbookViewId="0">
-      <selection activeCell="G266" sqref="G266:H266"/>
+    <sheetView tabSelected="1" topLeftCell="A279" zoomScale="74" workbookViewId="0">
+      <selection activeCell="F305" sqref="F305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2140,7 +2260,7 @@
     <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="108.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+    <col min="7" max="7" width="26.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="43" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
@@ -2658,91 +2778,91 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="E14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="E14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="J14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" t="s">
-        <v>108</v>
-      </c>
-      <c r="L14" t="s">
+      <c r="J14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L14" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" s="11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="E15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="E15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" t="s">
-        <v>108</v>
-      </c>
-      <c r="L15" t="s">
+      <c r="J15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L15" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2757,7 +2877,7 @@
         <v>87</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>33</v>
@@ -2792,7 +2912,7 @@
         <v>87</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
         <v>39</v>
@@ -2836,7 +2956,7 @@
         <v>87</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
         <v>39</v>
@@ -2880,7 +3000,7 @@
         <v>88</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
         <v>39</v>
@@ -2924,7 +3044,7 @@
         <v>88</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E20" t="s">
         <v>39</v>
@@ -2968,7 +3088,7 @@
         <v>88</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
         <v>39</v>
@@ -3012,7 +3132,7 @@
         <v>88</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
         <v>39</v>
@@ -3056,7 +3176,7 @@
         <v>88</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
         <v>39</v>
@@ -3100,7 +3220,7 @@
         <v>88</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
         <v>39</v>
@@ -3144,7 +3264,7 @@
         <v>88</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E25" t="s">
         <v>39</v>
@@ -3188,7 +3308,7 @@
         <v>88</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>84</v>
@@ -3226,7 +3346,7 @@
         <v>88</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E27" t="s">
         <v>39</v>
@@ -3270,7 +3390,7 @@
         <v>88</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E28" t="s">
         <v>39</v>
@@ -3314,7 +3434,7 @@
         <v>88</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E29" t="s">
         <v>39</v>
@@ -3358,7 +3478,7 @@
         <v>88</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E30" t="s">
         <v>39</v>
@@ -3402,7 +3522,7 @@
         <v>88</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E31" t="s">
         <v>39</v>
@@ -3446,7 +3566,7 @@
         <v>88</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E32" t="s">
         <v>39</v>
@@ -3490,7 +3610,7 @@
         <v>88</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E33" t="s">
         <v>39</v>
@@ -3534,7 +3654,7 @@
         <v>88</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E34" t="s">
         <v>39</v>
@@ -3578,7 +3698,7 @@
         <v>88</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E35" t="s">
         <v>39</v>
@@ -3622,7 +3742,7 @@
         <v>88</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E36" t="s">
         <v>39</v>
@@ -3666,7 +3786,7 @@
         <v>88</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E37" t="s">
         <v>39</v>
@@ -3710,7 +3830,7 @@
         <v>197</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>175</v>
@@ -3745,7 +3865,7 @@
         <v>197</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>169</v>
@@ -3783,7 +3903,7 @@
         <v>197</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E40" t="s">
         <v>39</v>
@@ -3827,7 +3947,7 @@
         <v>197</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>33</v>
@@ -3862,7 +3982,7 @@
         <v>197</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>170</v>
@@ -3900,7 +4020,7 @@
         <v>197</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E43" t="s">
         <v>39</v>
@@ -3944,7 +4064,7 @@
         <v>197</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E44" t="s">
         <v>39</v>
@@ -3988,7 +4108,7 @@
         <v>197</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E45" t="s">
         <v>39</v>
@@ -4032,7 +4152,7 @@
         <v>197</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>176</v>
@@ -4070,7 +4190,7 @@
         <v>197</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>33</v>
@@ -4105,7 +4225,7 @@
         <v>197</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E48" t="s">
         <v>39</v>
@@ -4149,7 +4269,7 @@
         <v>197</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>180</v>
@@ -4184,7 +4304,7 @@
         <v>197</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E50" t="s">
         <v>39</v>
@@ -4228,7 +4348,7 @@
         <v>197</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E51" t="s">
         <v>39</v>
@@ -4272,7 +4392,7 @@
         <v>197</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E52" t="s">
         <v>39</v>
@@ -4316,7 +4436,7 @@
         <v>197</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E53" t="s">
         <v>39</v>
@@ -4360,7 +4480,7 @@
         <v>197</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>241</v>
@@ -4430,7 +4550,7 @@
         <v>197</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E56" t="s">
         <v>39</v>
@@ -4474,7 +4594,7 @@
         <v>197</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>500</v>
@@ -4512,7 +4632,7 @@
         <v>197</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E58" t="s">
         <v>39</v>
@@ -4556,7 +4676,7 @@
         <v>197</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E59" t="s">
         <v>228</v>
@@ -4600,7 +4720,7 @@
         <v>197</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E60" t="s">
         <v>228</v>
@@ -4644,7 +4764,7 @@
         <v>197</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="F61" s="1"/>
       <c r="H61" s="1" t="s">
@@ -4680,7 +4800,7 @@
         <v>197</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E62" t="s">
         <v>39</v>
@@ -4724,7 +4844,7 @@
         <v>197</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E63" t="s">
         <v>39</v>
@@ -4768,7 +4888,7 @@
         <v>197</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>228</v>
@@ -4812,7 +4932,7 @@
         <v>197</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>228</v>
@@ -4853,7 +4973,7 @@
         <v>197</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>228</v>
@@ -4897,7 +5017,7 @@
         <v>197</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>228</v>
@@ -4941,7 +5061,7 @@
         <v>197</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E68" t="s">
         <v>39</v>
@@ -4985,7 +5105,7 @@
         <v>358</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E69" t="s">
         <v>39</v>
@@ -5024,7 +5144,7 @@
         <v>197</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="F70" t="s">
         <v>234</v>
@@ -5062,7 +5182,7 @@
         <v>197</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E71" t="s">
         <v>39</v>
@@ -5106,7 +5226,7 @@
         <v>197</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E72" t="s">
         <v>39</v>
@@ -5150,7 +5270,7 @@
         <v>197</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E73" t="s">
         <v>39</v>
@@ -5194,7 +5314,7 @@
         <v>197</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E74" t="s">
         <v>39</v>
@@ -5238,7 +5358,7 @@
         <v>197</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E75" t="s">
         <v>39</v>
@@ -5282,7 +5402,7 @@
         <v>197</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E76" t="s">
         <v>39</v>
@@ -5326,7 +5446,7 @@
         <v>197</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E77" t="s">
         <v>39</v>
@@ -5370,7 +5490,7 @@
         <v>197</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>33</v>
@@ -5405,7 +5525,7 @@
         <v>197</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E79" t="s">
         <v>39</v>
@@ -5449,7 +5569,7 @@
         <v>197</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E80" t="s">
         <v>39</v>
@@ -5493,7 +5613,7 @@
         <v>197</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E81" t="s">
         <v>39</v>
@@ -5537,7 +5657,7 @@
         <v>197</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E82" t="s">
         <v>39</v>
@@ -5581,7 +5701,7 @@
         <v>197</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E83" s="17" t="s">
         <v>39</v>
@@ -5625,7 +5745,7 @@
         <v>356</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E84" t="s">
         <v>39</v>
@@ -5669,7 +5789,7 @@
         <v>276</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E85" t="s">
         <v>39</v>
@@ -5836,7 +5956,7 @@
         <v>276</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E89" t="s">
         <v>39</v>
@@ -5880,7 +6000,7 @@
         <v>276</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E90" t="s">
         <v>39</v>
@@ -5921,7 +6041,7 @@
         <v>276</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>33</v>
@@ -5956,7 +6076,7 @@
         <v>276</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E92" t="s">
         <v>39</v>
@@ -6000,7 +6120,7 @@
         <v>276</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E93" t="s">
         <v>39</v>
@@ -6044,7 +6164,7 @@
         <v>276</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E94" t="s">
         <v>39</v>
@@ -6088,7 +6208,7 @@
         <v>276</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E95" t="s">
         <v>39</v>
@@ -6132,7 +6252,7 @@
         <v>276</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E96" t="s">
         <v>39</v>
@@ -6176,7 +6296,7 @@
         <v>276</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>33</v>
@@ -6211,7 +6331,7 @@
         <v>276</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E98" t="s">
         <v>39</v>
@@ -6255,7 +6375,7 @@
         <v>276</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E99" t="s">
         <v>39</v>
@@ -6299,7 +6419,7 @@
         <v>276</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E100" t="s">
         <v>39</v>
@@ -6343,7 +6463,7 @@
         <v>276</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E101" t="s">
         <v>39</v>
@@ -6387,7 +6507,7 @@
         <v>276</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E102" t="s">
         <v>39</v>
@@ -6431,7 +6551,7 @@
         <v>276</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E103" t="s">
         <v>39</v>
@@ -6475,7 +6595,7 @@
         <v>355</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>33</v>
@@ -6510,7 +6630,7 @@
         <v>276</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="F105" t="s">
         <v>280</v>
@@ -6548,7 +6668,7 @@
         <v>276</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E106" t="s">
         <v>39</v>
@@ -6592,7 +6712,7 @@
         <v>355</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E107" t="s">
         <v>39</v>
@@ -6636,7 +6756,7 @@
         <v>355</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E108" t="s">
         <v>39</v>
@@ -6680,7 +6800,7 @@
         <v>355</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E109" t="s">
         <v>39</v>
@@ -6724,7 +6844,7 @@
         <v>355</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="H110" s="6" t="s">
         <v>224</v>
@@ -6759,7 +6879,7 @@
         <v>355</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>33</v>
@@ -6794,7 +6914,7 @@
         <v>355</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="F112" t="s">
         <v>292</v>
@@ -6832,7 +6952,7 @@
         <v>355</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>180</v>
@@ -6867,7 +6987,7 @@
         <v>355</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E114" t="s">
         <v>39</v>
@@ -6911,7 +7031,7 @@
         <v>355</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>180</v>
@@ -6946,7 +7066,7 @@
         <v>355</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E116" t="s">
         <v>39</v>
@@ -6987,7 +7107,7 @@
         <v>355</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E117" t="s">
         <v>39</v>
@@ -7031,7 +7151,7 @@
         <v>355</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="H118" s="6" t="s">
         <v>224</v>
@@ -7066,7 +7186,7 @@
         <v>355</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E119" t="s">
         <v>39</v>
@@ -7110,7 +7230,7 @@
         <v>355</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E120" t="s">
         <v>39</v>
@@ -7154,7 +7274,7 @@
         <v>355</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>352</v>
@@ -7189,7 +7309,7 @@
         <v>355</v>
       </c>
       <c r="D122" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E122" s="13" t="s">
         <v>39</v>
@@ -7233,7 +7353,7 @@
         <v>358</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E123" t="s">
         <v>39</v>
@@ -7277,7 +7397,7 @@
         <v>355</v>
       </c>
       <c r="D124" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>33</v>
@@ -7312,7 +7432,7 @@
         <v>355</v>
       </c>
       <c r="D125" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="F125" t="s">
         <v>360</v>
@@ -7350,7 +7470,7 @@
         <v>358</v>
       </c>
       <c r="D126" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E126" t="s">
         <v>39</v>
@@ -7394,7 +7514,7 @@
         <v>358</v>
       </c>
       <c r="D127" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="F127" t="s">
         <v>225</v>
@@ -7432,7 +7552,7 @@
         <v>358</v>
       </c>
       <c r="D128" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E128" t="s">
         <v>39</v>
@@ -7476,7 +7596,7 @@
         <v>358</v>
       </c>
       <c r="D129" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E129" t="s">
         <v>39</v>
@@ -7520,7 +7640,7 @@
         <v>358</v>
       </c>
       <c r="D130" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E130" s="6" t="s">
         <v>228</v>
@@ -7564,7 +7684,7 @@
         <v>358</v>
       </c>
       <c r="D131" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E131" s="6" t="s">
         <v>228</v>
@@ -7605,7 +7725,7 @@
         <v>358</v>
       </c>
       <c r="D132" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E132" s="6" t="s">
         <v>228</v>
@@ -7649,7 +7769,7 @@
         <v>358</v>
       </c>
       <c r="D133" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E133" s="6" t="s">
         <v>228</v>
@@ -7693,7 +7813,7 @@
         <v>358</v>
       </c>
       <c r="D134" s="13" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E134" t="s">
         <v>39</v>
@@ -7745,7 +7865,7 @@
         <v>358</v>
       </c>
       <c r="D137" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="F137" t="s">
         <v>492</v>
@@ -7783,7 +7903,7 @@
         <v>358</v>
       </c>
       <c r="D138" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>241</v>
@@ -7818,7 +7938,7 @@
         <v>358</v>
       </c>
       <c r="D139" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E139" t="s">
         <v>39</v>
@@ -7862,7 +7982,7 @@
         <v>358</v>
       </c>
       <c r="D140" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E140" t="s">
         <v>39</v>
@@ -7906,7 +8026,7 @@
         <v>358</v>
       </c>
       <c r="D141" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E141" t="s">
         <v>39</v>
@@ -7964,7 +8084,7 @@
         <v>358</v>
       </c>
       <c r="D145" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>241</v>
@@ -7999,7 +8119,7 @@
         <v>358</v>
       </c>
       <c r="D146" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="F146" t="s">
         <v>493</v>
@@ -8037,7 +8157,7 @@
         <v>358</v>
       </c>
       <c r="D147" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>241</v>
@@ -8072,7 +8192,7 @@
         <v>358</v>
       </c>
       <c r="D148" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E148" t="s">
         <v>39</v>
@@ -8116,7 +8236,7 @@
         <v>358</v>
       </c>
       <c r="D149" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E149" t="s">
         <v>39</v>
@@ -8160,7 +8280,7 @@
         <v>358</v>
       </c>
       <c r="D150" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E150" t="s">
         <v>39</v>
@@ -8204,7 +8324,7 @@
         <v>358</v>
       </c>
       <c r="D155" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>241</v>
@@ -8239,7 +8359,7 @@
         <v>358</v>
       </c>
       <c r="D156" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="F156" t="s">
         <v>494</v>
@@ -8277,7 +8397,7 @@
         <v>358</v>
       </c>
       <c r="D157" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>241</v>
@@ -8312,7 +8432,7 @@
         <v>358</v>
       </c>
       <c r="D158" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E158" t="s">
         <v>39</v>
@@ -8356,7 +8476,7 @@
         <v>358</v>
       </c>
       <c r="D159" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E159" t="s">
         <v>39</v>
@@ -8400,7 +8520,7 @@
         <v>358</v>
       </c>
       <c r="D160" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>33</v>
@@ -8435,7 +8555,7 @@
         <v>358</v>
       </c>
       <c r="D161" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E161" t="s">
         <v>39</v>
@@ -8479,7 +8599,7 @@
         <v>358</v>
       </c>
       <c r="D167" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>241</v>
@@ -8514,7 +8634,7 @@
         <v>358</v>
       </c>
       <c r="D168" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="F168" t="s">
         <v>495</v>
@@ -8552,7 +8672,7 @@
         <v>358</v>
       </c>
       <c r="D169" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>241</v>
@@ -8587,7 +8707,7 @@
         <v>358</v>
       </c>
       <c r="D170" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E170" t="s">
         <v>39</v>
@@ -8631,7 +8751,7 @@
         <v>358</v>
       </c>
       <c r="D171" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>33</v>
@@ -8666,7 +8786,7 @@
         <v>358</v>
       </c>
       <c r="D172" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E172" t="s">
         <v>39</v>
@@ -8710,7 +8830,7 @@
         <v>358</v>
       </c>
       <c r="D173" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E173" t="s">
         <v>39</v>
@@ -8754,7 +8874,7 @@
         <v>358</v>
       </c>
       <c r="D177" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>241</v>
@@ -8789,7 +8909,7 @@
         <v>358</v>
       </c>
       <c r="D178" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="F178" t="s">
         <v>496</v>
@@ -8827,7 +8947,7 @@
         <v>358</v>
       </c>
       <c r="D179" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>241</v>
@@ -8862,7 +8982,7 @@
         <v>358</v>
       </c>
       <c r="D180" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E180" t="s">
         <v>39</v>
@@ -8906,7 +9026,7 @@
         <v>358</v>
       </c>
       <c r="D181" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E181" t="s">
         <v>39</v>
@@ -8950,7 +9070,7 @@
         <v>358</v>
       </c>
       <c r="D182" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E182" t="s">
         <v>39</v>
@@ -8994,7 +9114,7 @@
         <v>355</v>
       </c>
       <c r="D195" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="H195" s="1" t="s">
         <v>33</v>
@@ -9029,7 +9149,7 @@
         <v>355</v>
       </c>
       <c r="D196" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="F196" t="s">
         <v>359</v>
@@ -9067,7 +9187,7 @@
         <v>358</v>
       </c>
       <c r="D197" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E197" t="s">
         <v>39</v>
@@ -9111,7 +9231,7 @@
         <v>358</v>
       </c>
       <c r="D198" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="F198" t="s">
         <v>313</v>
@@ -9149,7 +9269,7 @@
         <v>358</v>
       </c>
       <c r="D199" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E199" t="s">
         <v>39</v>
@@ -9193,7 +9313,7 @@
         <v>358</v>
       </c>
       <c r="D200" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E200" t="s">
         <v>39</v>
@@ -9237,7 +9357,7 @@
         <v>358</v>
       </c>
       <c r="D201" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E201" t="s">
         <v>39</v>
@@ -9276,7 +9396,7 @@
         <v>358</v>
       </c>
       <c r="D202" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="F202" t="s">
         <v>319</v>
@@ -9314,7 +9434,7 @@
         <v>358</v>
       </c>
       <c r="D203" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E203" t="s">
         <v>39</v>
@@ -9358,7 +9478,7 @@
         <v>358</v>
       </c>
       <c r="D204" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E204" t="s">
         <v>39</v>
@@ -9402,7 +9522,7 @@
         <v>358</v>
       </c>
       <c r="D205" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="H205" s="1" t="s">
         <v>224</v>
@@ -9437,7 +9557,7 @@
         <v>358</v>
       </c>
       <c r="D206" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="F206" t="s">
         <v>322</v>
@@ -9475,7 +9595,7 @@
         <v>358</v>
       </c>
       <c r="D207" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E207" t="s">
         <v>39</v>
@@ -9519,7 +9639,7 @@
         <v>358</v>
       </c>
       <c r="D208" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E208" t="s">
         <v>39</v>
@@ -9563,7 +9683,7 @@
         <v>358</v>
       </c>
       <c r="D209" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E209" t="s">
         <v>39</v>
@@ -9607,7 +9727,7 @@
         <v>355</v>
       </c>
       <c r="D210" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="H210" s="1" t="s">
         <v>33</v>
@@ -9642,7 +9762,7 @@
         <v>355</v>
       </c>
       <c r="D211" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="F211" t="s">
         <v>359</v>
@@ -9680,7 +9800,7 @@
         <v>355</v>
       </c>
       <c r="D212" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E212" t="s">
         <v>39</v>
@@ -9740,7 +9860,7 @@
         <v>355</v>
       </c>
       <c r="D220" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="F220" t="s">
         <v>328</v>
@@ -9778,7 +9898,7 @@
         <v>357</v>
       </c>
       <c r="D221" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E221" t="s">
         <v>39</v>
@@ -9822,7 +9942,7 @@
         <v>355</v>
       </c>
       <c r="D222" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="F222" t="s">
         <v>330</v>
@@ -9860,7 +9980,7 @@
         <v>357</v>
       </c>
       <c r="D223" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E223" t="s">
         <v>39</v>
@@ -9889,7 +10009,7 @@
         <v>357</v>
       </c>
       <c r="D224" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E224" t="s">
         <v>39</v>
@@ -9918,7 +10038,7 @@
         <v>357</v>
       </c>
       <c r="D225" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="H225" s="1" t="s">
         <v>224</v>
@@ -9938,7 +10058,7 @@
         <v>355</v>
       </c>
       <c r="D226" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="F226" t="s">
         <v>334</v>
@@ -9976,7 +10096,7 @@
         <v>357</v>
       </c>
       <c r="D227" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E227" t="s">
         <v>39</v>
@@ -10005,7 +10125,7 @@
         <v>357</v>
       </c>
       <c r="D228" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E228" t="s">
         <v>39</v>
@@ -10034,7 +10154,7 @@
         <v>357</v>
       </c>
       <c r="D229" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="H229" s="1" t="s">
         <v>224</v>
@@ -10054,7 +10174,7 @@
         <v>355</v>
       </c>
       <c r="D230" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="F230" t="s">
         <v>343</v>
@@ -10092,7 +10212,7 @@
         <v>357</v>
       </c>
       <c r="D231" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E231" t="s">
         <v>39</v>
@@ -10121,7 +10241,7 @@
         <v>357</v>
       </c>
       <c r="D232" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E232" t="s">
         <v>39</v>
@@ -10150,7 +10270,7 @@
         <v>357</v>
       </c>
       <c r="D233" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="H233" s="1" t="s">
         <v>224</v>
@@ -10170,7 +10290,7 @@
         <v>355</v>
       </c>
       <c r="D234" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="F234" t="s">
         <v>344</v>
@@ -10208,7 +10328,7 @@
         <v>357</v>
       </c>
       <c r="D235" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E235" t="s">
         <v>39</v>
@@ -10237,7 +10357,7 @@
         <v>357</v>
       </c>
       <c r="D236" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E236" t="s">
         <v>39</v>
@@ -10266,7 +10386,7 @@
         <v>357</v>
       </c>
       <c r="D237" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="H237" s="1" t="s">
         <v>224</v>
@@ -10286,7 +10406,7 @@
         <v>355</v>
       </c>
       <c r="D238" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="F238" t="s">
         <v>345</v>
@@ -10324,7 +10444,7 @@
         <v>357</v>
       </c>
       <c r="D239" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E239" t="s">
         <v>39</v>
@@ -10353,7 +10473,7 @@
         <v>357</v>
       </c>
       <c r="D240" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E240" t="s">
         <v>39</v>
@@ -10382,7 +10502,7 @@
         <v>276</v>
       </c>
       <c r="D241" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="H241" s="1" t="s">
         <v>224</v>
@@ -10402,7 +10522,7 @@
         <v>355</v>
       </c>
       <c r="D242" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="F242" t="s">
         <v>328</v>
@@ -10440,7 +10560,7 @@
         <v>357</v>
       </c>
       <c r="D243" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E243" t="s">
         <v>39</v>
@@ -10484,7 +10604,7 @@
         <v>357</v>
       </c>
       <c r="D252" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E252" t="s">
         <v>39</v>
@@ -10519,28 +10639,19 @@
     </row>
     <row r="253" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="B253" t="s">
         <v>15</v>
       </c>
       <c r="C253" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D253" t="s">
-        <v>219</v>
-      </c>
-      <c r="E253" t="s">
-        <v>39</v>
-      </c>
-      <c r="F253" t="s">
-        <v>504</v>
-      </c>
-      <c r="G253" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>42</v>
+        <v>527</v>
       </c>
       <c r="J253" t="s">
         <v>17</v>
@@ -10558,7 +10669,7 @@
         <v>216</v>
       </c>
       <c r="O253" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
     </row>
     <row r="254" spans="1:15" x14ac:dyDescent="0.3">
@@ -10572,10 +10683,19 @@
         <v>357</v>
       </c>
       <c r="D254" t="s">
-        <v>219</v>
+        <v>16</v>
+      </c>
+      <c r="E254" t="s">
+        <v>39</v>
+      </c>
+      <c r="F254" t="s">
+        <v>504</v>
+      </c>
+      <c r="G254" t="s">
+        <v>30</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>505</v>
+        <v>76</v>
       </c>
       <c r="J254" t="s">
         <v>17</v>
@@ -10607,19 +10727,10 @@
         <v>357</v>
       </c>
       <c r="D255" t="s">
-        <v>219</v>
-      </c>
-      <c r="E255" t="s">
-        <v>39</v>
-      </c>
-      <c r="F255" t="s">
-        <v>506</v>
-      </c>
-      <c r="G255" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>76</v>
+        <v>505</v>
       </c>
       <c r="J255" t="s">
         <v>17</v>
@@ -10651,19 +10762,19 @@
         <v>357</v>
       </c>
       <c r="D256" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E256" t="s">
         <v>39</v>
       </c>
       <c r="F256" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G256" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="J256" t="s">
         <v>17</v>
@@ -10695,13 +10806,13 @@
         <v>357</v>
       </c>
       <c r="D257" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="E257" t="s">
         <v>39</v>
       </c>
       <c r="F257" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G257" t="s">
         <v>29</v>
@@ -10728,47 +10839,47 @@
         <v>329</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A263" s="3" t="s">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A258" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="B263" t="s">
-        <v>15</v>
-      </c>
-      <c r="C263" t="s">
+      <c r="B258" t="s">
+        <v>15</v>
+      </c>
+      <c r="C258" t="s">
         <v>357</v>
       </c>
-      <c r="D263" t="s">
-        <v>16</v>
-      </c>
-      <c r="E263" t="s">
-        <v>39</v>
-      </c>
-      <c r="F263" t="s">
-        <v>509</v>
-      </c>
-      <c r="G263" t="s">
-        <v>30</v>
-      </c>
-      <c r="H263" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J263" t="s">
-        <v>17</v>
-      </c>
-      <c r="K263" t="s">
-        <v>108</v>
-      </c>
-      <c r="L263" t="s">
-        <v>198</v>
-      </c>
-      <c r="M263" t="s">
-        <v>248</v>
-      </c>
-      <c r="N263" t="s">
-        <v>216</v>
-      </c>
-      <c r="O263" t="s">
+      <c r="D258" t="s">
+        <v>16</v>
+      </c>
+      <c r="E258" t="s">
+        <v>39</v>
+      </c>
+      <c r="F258" t="s">
+        <v>508</v>
+      </c>
+      <c r="G258" t="s">
+        <v>29</v>
+      </c>
+      <c r="H258" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J258" t="s">
+        <v>17</v>
+      </c>
+      <c r="K258" t="s">
+        <v>108</v>
+      </c>
+      <c r="L258" t="s">
+        <v>198</v>
+      </c>
+      <c r="M258" t="s">
+        <v>248</v>
+      </c>
+      <c r="N258" t="s">
+        <v>216</v>
+      </c>
+      <c r="O258" t="s">
         <v>329</v>
       </c>
     </row>
@@ -10789,13 +10900,13 @@
         <v>39</v>
       </c>
       <c r="F264" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G264" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="J264" t="s">
         <v>17</v>
@@ -10818,22 +10929,28 @@
     </row>
     <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="B265" t="s">
         <v>15</v>
       </c>
       <c r="C265" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D265" t="s">
         <v>16</v>
       </c>
+      <c r="E265" t="s">
+        <v>39</v>
+      </c>
       <c r="F265" t="s">
-        <v>511</v>
+        <v>510</v>
+      </c>
+      <c r="G265" t="s">
+        <v>29</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>499</v>
+        <v>42</v>
       </c>
       <c r="J265" t="s">
         <v>17</v>
@@ -10851,7 +10968,7 @@
         <v>216</v>
       </c>
       <c r="O265" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
     </row>
     <row r="266" spans="1:15" x14ac:dyDescent="0.3">
@@ -10867,14 +10984,8 @@
       <c r="D266" t="s">
         <v>16</v>
       </c>
-      <c r="F266" t="s">
-        <v>511</v>
-      </c>
-      <c r="G266" t="s">
-        <v>29</v>
-      </c>
       <c r="H266" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J266" t="s">
         <v>17</v>
@@ -10908,8 +11019,11 @@
       <c r="D267" t="s">
         <v>16</v>
       </c>
+      <c r="F267" t="s">
+        <v>511</v>
+      </c>
       <c r="H267" s="1" t="s">
-        <v>33</v>
+        <v>499</v>
       </c>
       <c r="J267" t="s">
         <v>17</v>
@@ -10932,13 +11046,13 @@
     </row>
     <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268" s="3" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="B268" t="s">
         <v>15</v>
       </c>
       <c r="C268" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D268" t="s">
         <v>16</v>
@@ -10947,13 +11061,13 @@
         <v>39</v>
       </c>
       <c r="F268" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G268" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J268" t="s">
         <v>17</v>
@@ -10971,33 +11085,24 @@
         <v>216</v>
       </c>
       <c r="O268" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
     </row>
     <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="B269" t="s">
         <v>15</v>
       </c>
       <c r="C269" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D269" t="s">
         <v>16</v>
       </c>
-      <c r="E269" t="s">
-        <v>39</v>
-      </c>
-      <c r="F269" t="s">
-        <v>512</v>
-      </c>
-      <c r="G269" t="s">
-        <v>29</v>
-      </c>
       <c r="H269" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J269" t="s">
         <v>17</v>
@@ -11015,7 +11120,7 @@
         <v>216</v>
       </c>
       <c r="O269" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
     </row>
     <row r="270" spans="1:15" x14ac:dyDescent="0.3">
@@ -11035,13 +11140,13 @@
         <v>39</v>
       </c>
       <c r="F270" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G270" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="J270" t="s">
         <v>17</v>
@@ -11079,13 +11184,13 @@
         <v>39</v>
       </c>
       <c r="F271" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G271" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J271" t="s">
         <v>17</v>
@@ -11106,91 +11211,91 @@
         <v>329</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A276" s="3" t="s">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A272" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="B276" t="s">
-        <v>15</v>
-      </c>
-      <c r="C276" t="s">
+      <c r="B272" t="s">
+        <v>15</v>
+      </c>
+      <c r="C272" t="s">
         <v>357</v>
       </c>
-      <c r="D276" t="s">
-        <v>16</v>
-      </c>
-      <c r="E276" t="s">
-        <v>39</v>
-      </c>
-      <c r="F276" t="s">
-        <v>515</v>
-      </c>
-      <c r="G276" t="s">
+      <c r="D272" t="s">
+        <v>16</v>
+      </c>
+      <c r="E272" t="s">
+        <v>39</v>
+      </c>
+      <c r="F272" t="s">
+        <v>513</v>
+      </c>
+      <c r="G272" t="s">
         <v>29</v>
       </c>
-      <c r="H276" s="1" t="s">
+      <c r="H272" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J276" t="s">
-        <v>17</v>
-      </c>
-      <c r="K276" t="s">
-        <v>108</v>
-      </c>
-      <c r="L276" t="s">
-        <v>198</v>
-      </c>
-      <c r="M276" t="s">
-        <v>248</v>
-      </c>
-      <c r="N276" t="s">
-        <v>216</v>
-      </c>
-      <c r="O276" t="s">
+      <c r="J272" t="s">
+        <v>17</v>
+      </c>
+      <c r="K272" t="s">
+        <v>108</v>
+      </c>
+      <c r="L272" t="s">
+        <v>198</v>
+      </c>
+      <c r="M272" t="s">
+        <v>248</v>
+      </c>
+      <c r="N272" t="s">
+        <v>216</v>
+      </c>
+      <c r="O272" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A277" s="3" t="s">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A273" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="B277" t="s">
-        <v>15</v>
-      </c>
-      <c r="C277" t="s">
+      <c r="B273" t="s">
+        <v>15</v>
+      </c>
+      <c r="C273" t="s">
         <v>357</v>
       </c>
-      <c r="D277" t="s">
-        <v>16</v>
-      </c>
-      <c r="E277" t="s">
-        <v>39</v>
-      </c>
-      <c r="F277" t="s">
-        <v>516</v>
-      </c>
-      <c r="G277" t="s">
-        <v>29</v>
-      </c>
-      <c r="H277" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J277" t="s">
-        <v>17</v>
-      </c>
-      <c r="K277" t="s">
-        <v>108</v>
-      </c>
-      <c r="L277" t="s">
-        <v>198</v>
-      </c>
-      <c r="M277" t="s">
-        <v>248</v>
-      </c>
-      <c r="N277" t="s">
-        <v>216</v>
-      </c>
-      <c r="O277" t="s">
+      <c r="D273" t="s">
+        <v>16</v>
+      </c>
+      <c r="E273" t="s">
+        <v>39</v>
+      </c>
+      <c r="F273" t="s">
+        <v>514</v>
+      </c>
+      <c r="G273" t="s">
+        <v>30</v>
+      </c>
+      <c r="H273" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J273" t="s">
+        <v>17</v>
+      </c>
+      <c r="K273" t="s">
+        <v>108</v>
+      </c>
+      <c r="L273" t="s">
+        <v>198</v>
+      </c>
+      <c r="M273" t="s">
+        <v>248</v>
+      </c>
+      <c r="N273" t="s">
+        <v>216</v>
+      </c>
+      <c r="O273" t="s">
         <v>329</v>
       </c>
     </row>
@@ -11211,7 +11316,7 @@
         <v>39</v>
       </c>
       <c r="F278" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="G278" t="s">
         <v>29</v>
@@ -11255,13 +11360,13 @@
         <v>39</v>
       </c>
       <c r="F279" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G279" t="s">
-        <v>518</v>
+        <v>29</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>223</v>
+        <v>42</v>
       </c>
       <c r="J279" t="s">
         <v>17</v>
@@ -11284,22 +11389,46 @@
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="B280" t="s">
         <v>15</v>
       </c>
       <c r="C280" t="s">
-        <v>276</v>
+        <v>357</v>
       </c>
       <c r="D280" t="s">
         <v>16</v>
       </c>
+      <c r="E280" t="s">
+        <v>39</v>
+      </c>
+      <c r="F280" t="s">
+        <v>517</v>
+      </c>
+      <c r="G280" t="s">
+        <v>29</v>
+      </c>
       <c r="H280" s="1" t="s">
-        <v>224</v>
+        <v>42</v>
+      </c>
+      <c r="J280" t="s">
+        <v>17</v>
+      </c>
+      <c r="K280" t="s">
+        <v>108</v>
+      </c>
+      <c r="L280" t="s">
+        <v>198</v>
+      </c>
+      <c r="M280" t="s">
+        <v>248</v>
+      </c>
+      <c r="N280" t="s">
+        <v>216</v>
       </c>
       <c r="O280" t="s">
-        <v>287</v>
+        <v>329</v>
       </c>
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.3">
@@ -11319,13 +11448,13 @@
         <v>39</v>
       </c>
       <c r="F281" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G281" t="s">
-        <v>29</v>
+        <v>518</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>42</v>
+        <v>223</v>
       </c>
       <c r="J281" t="s">
         <v>17</v>
@@ -11348,86 +11477,92 @@
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="B282" t="s">
         <v>15</v>
       </c>
       <c r="C282" t="s">
-        <v>357</v>
+        <v>276</v>
       </c>
       <c r="D282" t="s">
         <v>16</v>
       </c>
-      <c r="E282" t="s">
-        <v>39</v>
-      </c>
-      <c r="F282" t="s">
-        <v>520</v>
-      </c>
-      <c r="G282" t="s">
-        <v>521</v>
-      </c>
       <c r="H282" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="J282" t="s">
-        <v>17</v>
-      </c>
-      <c r="K282" t="s">
-        <v>108</v>
-      </c>
-      <c r="L282" t="s">
-        <v>198</v>
-      </c>
-      <c r="M282" t="s">
-        <v>248</v>
-      </c>
-      <c r="N282" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="O282" t="s">
-        <v>329</v>
+        <v>287</v>
       </c>
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="B283" t="s">
         <v>15</v>
       </c>
       <c r="C283" t="s">
-        <v>276</v>
+        <v>357</v>
       </c>
       <c r="D283" t="s">
         <v>16</v>
       </c>
+      <c r="E283" t="s">
+        <v>39</v>
+      </c>
+      <c r="F283" t="s">
+        <v>520</v>
+      </c>
+      <c r="G283" t="s">
+        <v>29</v>
+      </c>
       <c r="H283" s="1" t="s">
-        <v>224</v>
+        <v>42</v>
+      </c>
+      <c r="J283" t="s">
+        <v>17</v>
+      </c>
+      <c r="K283" t="s">
+        <v>108</v>
+      </c>
+      <c r="L283" t="s">
+        <v>198</v>
+      </c>
+      <c r="M283" t="s">
+        <v>248</v>
+      </c>
+      <c r="N283" t="s">
+        <v>216</v>
       </c>
       <c r="O283" t="s">
-        <v>287</v>
+        <v>329</v>
       </c>
     </row>
     <row r="284" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="B284" t="s">
         <v>15</v>
       </c>
       <c r="C284" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D284" t="s">
         <v>16</v>
       </c>
+      <c r="E284" t="s">
+        <v>39</v>
+      </c>
       <c r="F284" t="s">
-        <v>522</v>
+        <v>520</v>
+      </c>
+      <c r="G284" t="s">
+        <v>521</v>
       </c>
       <c r="H284" s="1" t="s">
-        <v>499</v>
+        <v>223</v>
       </c>
       <c r="J284" t="s">
         <v>17</v>
@@ -11445,77 +11580,47 @@
         <v>216</v>
       </c>
       <c r="O284" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="B285" t="s">
         <v>15</v>
       </c>
       <c r="C285" t="s">
-        <v>357</v>
+        <v>276</v>
       </c>
       <c r="D285" t="s">
         <v>16</v>
       </c>
-      <c r="E285" t="s">
-        <v>39</v>
-      </c>
-      <c r="F285" t="s">
-        <v>522</v>
-      </c>
-      <c r="G285" t="s">
-        <v>29</v>
-      </c>
       <c r="H285" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J285" t="s">
-        <v>17</v>
-      </c>
-      <c r="K285" t="s">
-        <v>108</v>
-      </c>
-      <c r="L285" t="s">
-        <v>198</v>
-      </c>
-      <c r="M285" t="s">
-        <v>248</v>
-      </c>
-      <c r="N285" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="O285" t="s">
-        <v>329</v>
+        <v>287</v>
       </c>
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="B286" t="s">
         <v>15</v>
       </c>
       <c r="C286" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D286" t="s">
         <v>16</v>
-      </c>
-      <c r="E286" t="s">
-        <v>39</v>
       </c>
       <c r="F286" t="s">
         <v>522</v>
       </c>
-      <c r="G286" t="s">
-        <v>523</v>
-      </c>
       <c r="H286" s="1" t="s">
-        <v>223</v>
+        <v>499</v>
       </c>
       <c r="J286" t="s">
         <v>17</v>
@@ -11533,47 +11638,77 @@
         <v>216</v>
       </c>
       <c r="O286" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
     </row>
     <row r="287" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="B287" t="s">
         <v>15</v>
       </c>
       <c r="C287" t="s">
-        <v>276</v>
+        <v>357</v>
       </c>
       <c r="D287" t="s">
         <v>16</v>
       </c>
+      <c r="E287" t="s">
+        <v>39</v>
+      </c>
+      <c r="F287" t="s">
+        <v>522</v>
+      </c>
+      <c r="G287" t="s">
+        <v>29</v>
+      </c>
       <c r="H287" s="1" t="s">
-        <v>224</v>
+        <v>42</v>
+      </c>
+      <c r="J287" t="s">
+        <v>17</v>
+      </c>
+      <c r="K287" t="s">
+        <v>108</v>
+      </c>
+      <c r="L287" t="s">
+        <v>198</v>
+      </c>
+      <c r="M287" t="s">
+        <v>248</v>
+      </c>
+      <c r="N287" t="s">
+        <v>216</v>
       </c>
       <c r="O287" t="s">
-        <v>287</v>
+        <v>329</v>
       </c>
     </row>
     <row r="288" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="B288" t="s">
         <v>15</v>
       </c>
       <c r="C288" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D288" t="s">
         <v>16</v>
       </c>
+      <c r="E288" t="s">
+        <v>39</v>
+      </c>
       <c r="F288" t="s">
-        <v>526</v>
+        <v>522</v>
+      </c>
+      <c r="G288" t="s">
+        <v>523</v>
       </c>
       <c r="H288" s="1" t="s">
-        <v>499</v>
+        <v>223</v>
       </c>
       <c r="J288" t="s">
         <v>17</v>
@@ -11591,77 +11726,47 @@
         <v>216</v>
       </c>
       <c r="O288" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
     </row>
     <row r="289" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="B289" t="s">
         <v>15</v>
       </c>
       <c r="C289" t="s">
-        <v>357</v>
+        <v>276</v>
       </c>
       <c r="D289" t="s">
         <v>16</v>
       </c>
-      <c r="E289" t="s">
-        <v>39</v>
-      </c>
-      <c r="F289" t="s">
-        <v>526</v>
-      </c>
-      <c r="G289" t="s">
-        <v>29</v>
-      </c>
       <c r="H289" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J289" t="s">
-        <v>17</v>
-      </c>
-      <c r="K289" t="s">
-        <v>108</v>
-      </c>
-      <c r="L289" t="s">
-        <v>198</v>
-      </c>
-      <c r="M289" t="s">
-        <v>248</v>
-      </c>
-      <c r="N289" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="O289" t="s">
-        <v>329</v>
+        <v>287</v>
       </c>
     </row>
     <row r="290" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="B290" t="s">
         <v>15</v>
       </c>
       <c r="C290" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D290" t="s">
         <v>16</v>
-      </c>
-      <c r="E290" t="s">
-        <v>39</v>
       </c>
       <c r="F290" t="s">
         <v>526</v>
       </c>
-      <c r="G290" t="s">
-        <v>525</v>
-      </c>
       <c r="H290" s="1" t="s">
-        <v>223</v>
+        <v>499</v>
       </c>
       <c r="J290" t="s">
         <v>17</v>
@@ -11679,47 +11784,77 @@
         <v>216</v>
       </c>
       <c r="O290" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
     </row>
     <row r="291" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="B291" t="s">
         <v>15</v>
       </c>
       <c r="C291" t="s">
-        <v>276</v>
+        <v>357</v>
       </c>
       <c r="D291" t="s">
         <v>16</v>
       </c>
+      <c r="E291" t="s">
+        <v>39</v>
+      </c>
+      <c r="F291" t="s">
+        <v>526</v>
+      </c>
+      <c r="G291" t="s">
+        <v>29</v>
+      </c>
       <c r="H291" s="1" t="s">
-        <v>224</v>
+        <v>42</v>
+      </c>
+      <c r="J291" t="s">
+        <v>17</v>
+      </c>
+      <c r="K291" t="s">
+        <v>108</v>
+      </c>
+      <c r="L291" t="s">
+        <v>198</v>
+      </c>
+      <c r="M291" t="s">
+        <v>248</v>
+      </c>
+      <c r="N291" t="s">
+        <v>216</v>
       </c>
       <c r="O291" t="s">
-        <v>287</v>
+        <v>329</v>
       </c>
     </row>
     <row r="292" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="B292" t="s">
         <v>15</v>
       </c>
       <c r="C292" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D292" t="s">
         <v>16</v>
       </c>
+      <c r="E292" t="s">
+        <v>39</v>
+      </c>
       <c r="F292" t="s">
-        <v>516</v>
+        <v>526</v>
+      </c>
+      <c r="G292" t="s">
+        <v>525</v>
       </c>
       <c r="H292" s="1" t="s">
-        <v>367</v>
+        <v>223</v>
       </c>
       <c r="J292" t="s">
         <v>17</v>
@@ -11737,51 +11872,3145 @@
         <v>216</v>
       </c>
       <c r="O292" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
     </row>
     <row r="293" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B293" t="s">
+        <v>15</v>
+      </c>
+      <c r="C293" t="s">
+        <v>276</v>
+      </c>
+      <c r="D293" t="s">
+        <v>16</v>
+      </c>
+      <c r="H293" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="O293" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A294" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B294" t="s">
+        <v>15</v>
+      </c>
+      <c r="C294" t="s">
+        <v>355</v>
+      </c>
+      <c r="D294" t="s">
+        <v>16</v>
+      </c>
+      <c r="F294" t="s">
+        <v>516</v>
+      </c>
+      <c r="H294" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J294" t="s">
+        <v>17</v>
+      </c>
+      <c r="K294" t="s">
+        <v>108</v>
+      </c>
+      <c r="L294" t="s">
+        <v>198</v>
+      </c>
+      <c r="M294" t="s">
+        <v>248</v>
+      </c>
+      <c r="N294" t="s">
+        <v>216</v>
+      </c>
+      <c r="O294" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A295" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="B293" t="s">
-        <v>15</v>
-      </c>
-      <c r="C293" t="s">
+      <c r="B295" t="s">
+        <v>15</v>
+      </c>
+      <c r="C295" t="s">
         <v>357</v>
       </c>
-      <c r="D293" t="s">
-        <v>16</v>
-      </c>
-      <c r="E293" t="s">
-        <v>39</v>
-      </c>
-      <c r="F293" t="s">
+      <c r="D295" t="s">
+        <v>16</v>
+      </c>
+      <c r="E295" t="s">
+        <v>39</v>
+      </c>
+      <c r="F295" t="s">
         <v>516</v>
       </c>
-      <c r="G293" t="s">
+      <c r="G295" t="s">
         <v>29</v>
       </c>
-      <c r="H293" s="1" t="s">
+      <c r="H295" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J293" t="s">
-        <v>17</v>
-      </c>
-      <c r="K293" t="s">
-        <v>108</v>
-      </c>
-      <c r="L293" t="s">
-        <v>198</v>
-      </c>
-      <c r="M293" t="s">
-        <v>248</v>
-      </c>
-      <c r="N293" t="s">
-        <v>216</v>
-      </c>
-      <c r="O293" t="s">
+      <c r="J295" t="s">
+        <v>17</v>
+      </c>
+      <c r="K295" t="s">
+        <v>108</v>
+      </c>
+      <c r="L295" t="s">
+        <v>198</v>
+      </c>
+      <c r="M295" t="s">
+        <v>248</v>
+      </c>
+      <c r="N295" t="s">
+        <v>216</v>
+      </c>
+      <c r="O295" t="s">
         <v>329</v>
+      </c>
+    </row>
+    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A302" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B302" t="s">
+        <v>15</v>
+      </c>
+      <c r="C302" t="s">
+        <v>355</v>
+      </c>
+      <c r="D302" t="s">
+        <v>16</v>
+      </c>
+      <c r="E302" t="s">
+        <v>39</v>
+      </c>
+      <c r="F302" t="s">
+        <v>528</v>
+      </c>
+      <c r="G302" t="s">
+        <v>29</v>
+      </c>
+      <c r="H302" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J302" t="s">
+        <v>17</v>
+      </c>
+      <c r="K302" t="s">
+        <v>108</v>
+      </c>
+      <c r="L302" t="s">
+        <v>198</v>
+      </c>
+      <c r="M302" t="s">
+        <v>248</v>
+      </c>
+      <c r="N302" t="s">
+        <v>216</v>
+      </c>
+      <c r="O302" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A303" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B303" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" t="s">
+        <v>355</v>
+      </c>
+      <c r="D303" t="s">
+        <v>16</v>
+      </c>
+      <c r="E303" t="s">
+        <v>39</v>
+      </c>
+      <c r="F303" t="s">
+        <v>529</v>
+      </c>
+      <c r="G303" t="s">
+        <v>29</v>
+      </c>
+      <c r="H303" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J303" t="s">
+        <v>17</v>
+      </c>
+      <c r="K303" t="s">
+        <v>108</v>
+      </c>
+      <c r="L303" t="s">
+        <v>198</v>
+      </c>
+      <c r="M303" t="s">
+        <v>248</v>
+      </c>
+      <c r="N303" t="s">
+        <v>216</v>
+      </c>
+      <c r="O303" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A304" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B304" t="s">
+        <v>15</v>
+      </c>
+      <c r="C304" t="s">
+        <v>355</v>
+      </c>
+      <c r="D304" t="s">
+        <v>16</v>
+      </c>
+      <c r="H304" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J304" t="s">
+        <v>17</v>
+      </c>
+      <c r="K304" t="s">
+        <v>108</v>
+      </c>
+      <c r="L304" t="s">
+        <v>198</v>
+      </c>
+      <c r="M304" t="s">
+        <v>248</v>
+      </c>
+      <c r="N304" t="s">
+        <v>216</v>
+      </c>
+      <c r="O304" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A305" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B305" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305" t="s">
+        <v>355</v>
+      </c>
+      <c r="D305" t="s">
+        <v>16</v>
+      </c>
+      <c r="E305" t="s">
+        <v>39</v>
+      </c>
+      <c r="F305" t="s">
+        <v>498</v>
+      </c>
+      <c r="G305" t="s">
+        <v>530</v>
+      </c>
+      <c r="H305" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="J305" t="s">
+        <v>17</v>
+      </c>
+      <c r="K305" t="s">
+        <v>108</v>
+      </c>
+      <c r="L305" t="s">
+        <v>198</v>
+      </c>
+      <c r="M305" t="s">
+        <v>248</v>
+      </c>
+      <c r="N305" t="s">
+        <v>216</v>
+      </c>
+      <c r="O305" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A306" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B306" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>355</v>
+      </c>
+      <c r="D306" t="s">
+        <v>16</v>
+      </c>
+      <c r="H306" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J306" t="s">
+        <v>17</v>
+      </c>
+      <c r="K306" t="s">
+        <v>108</v>
+      </c>
+      <c r="L306" t="s">
+        <v>198</v>
+      </c>
+      <c r="M306" t="s">
+        <v>248</v>
+      </c>
+      <c r="N306" t="s">
+        <v>216</v>
+      </c>
+      <c r="O306" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A307" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B307" t="s">
+        <v>15</v>
+      </c>
+      <c r="C307" t="s">
+        <v>355</v>
+      </c>
+      <c r="D307" t="s">
+        <v>16</v>
+      </c>
+      <c r="F307" t="s">
+        <v>322</v>
+      </c>
+      <c r="H307" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="J307" t="s">
+        <v>17</v>
+      </c>
+      <c r="K307" t="s">
+        <v>108</v>
+      </c>
+      <c r="L307" t="s">
+        <v>198</v>
+      </c>
+      <c r="M307" t="s">
+        <v>248</v>
+      </c>
+      <c r="N307" t="s">
+        <v>216</v>
+      </c>
+      <c r="O307" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A308" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B308" t="s">
+        <v>15</v>
+      </c>
+      <c r="C308" t="s">
+        <v>355</v>
+      </c>
+      <c r="D308" t="s">
+        <v>16</v>
+      </c>
+      <c r="E308" t="s">
+        <v>39</v>
+      </c>
+      <c r="F308" t="s">
+        <v>532</v>
+      </c>
+      <c r="G308" t="s">
+        <v>29</v>
+      </c>
+      <c r="H308" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J308" t="s">
+        <v>17</v>
+      </c>
+      <c r="K308" t="s">
+        <v>108</v>
+      </c>
+      <c r="L308" t="s">
+        <v>198</v>
+      </c>
+      <c r="M308" t="s">
+        <v>248</v>
+      </c>
+      <c r="N308" t="s">
+        <v>216</v>
+      </c>
+      <c r="O308" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A309" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B309" t="s">
+        <v>15</v>
+      </c>
+      <c r="C309" t="s">
+        <v>355</v>
+      </c>
+      <c r="D309" t="s">
+        <v>16</v>
+      </c>
+      <c r="E309" t="s">
+        <v>39</v>
+      </c>
+      <c r="F309" t="s">
+        <v>360</v>
+      </c>
+      <c r="G309" t="s">
+        <v>29</v>
+      </c>
+      <c r="H309" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J309" t="s">
+        <v>17</v>
+      </c>
+      <c r="K309" t="s">
+        <v>108</v>
+      </c>
+      <c r="L309" t="s">
+        <v>198</v>
+      </c>
+      <c r="M309" t="s">
+        <v>248</v>
+      </c>
+      <c r="N309" t="s">
+        <v>216</v>
+      </c>
+      <c r="O309" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A310" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B310" t="s">
+        <v>15</v>
+      </c>
+      <c r="C310" t="s">
+        <v>355</v>
+      </c>
+      <c r="D310" t="s">
+        <v>16</v>
+      </c>
+      <c r="F310" t="s">
+        <v>528</v>
+      </c>
+      <c r="H310" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J310" t="s">
+        <v>17</v>
+      </c>
+      <c r="K310" t="s">
+        <v>108</v>
+      </c>
+      <c r="L310" t="s">
+        <v>198</v>
+      </c>
+      <c r="M310" t="s">
+        <v>248</v>
+      </c>
+      <c r="N310" t="s">
+        <v>216</v>
+      </c>
+      <c r="O310" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A311" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B311" t="s">
+        <v>15</v>
+      </c>
+      <c r="C311" t="s">
+        <v>355</v>
+      </c>
+      <c r="D311" t="s">
+        <v>16</v>
+      </c>
+      <c r="E311" t="s">
+        <v>39</v>
+      </c>
+      <c r="F311" t="s">
+        <v>528</v>
+      </c>
+      <c r="G311" t="s">
+        <v>29</v>
+      </c>
+      <c r="H311" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J311" t="s">
+        <v>17</v>
+      </c>
+      <c r="K311" t="s">
+        <v>108</v>
+      </c>
+      <c r="L311" t="s">
+        <v>198</v>
+      </c>
+      <c r="M311" t="s">
+        <v>248</v>
+      </c>
+      <c r="N311" t="s">
+        <v>216</v>
+      </c>
+      <c r="O311" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A316" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B316" t="s">
+        <v>15</v>
+      </c>
+      <c r="C316" t="s">
+        <v>355</v>
+      </c>
+      <c r="D316" t="s">
+        <v>16</v>
+      </c>
+      <c r="E316" t="s">
+        <v>39</v>
+      </c>
+      <c r="F316" t="s">
+        <v>533</v>
+      </c>
+      <c r="G316" t="s">
+        <v>29</v>
+      </c>
+      <c r="H316" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J316" t="s">
+        <v>17</v>
+      </c>
+      <c r="K316" t="s">
+        <v>108</v>
+      </c>
+      <c r="L316" t="s">
+        <v>198</v>
+      </c>
+      <c r="M316" t="s">
+        <v>248</v>
+      </c>
+      <c r="N316" t="s">
+        <v>216</v>
+      </c>
+      <c r="O316" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A317" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B317" t="s">
+        <v>15</v>
+      </c>
+      <c r="C317" t="s">
+        <v>355</v>
+      </c>
+      <c r="D317" t="s">
+        <v>16</v>
+      </c>
+      <c r="F317" t="s">
+        <v>535</v>
+      </c>
+      <c r="H317" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="J317" t="s">
+        <v>17</v>
+      </c>
+      <c r="K317" t="s">
+        <v>108</v>
+      </c>
+      <c r="L317" t="s">
+        <v>198</v>
+      </c>
+      <c r="M317" t="s">
+        <v>248</v>
+      </c>
+      <c r="N317" t="s">
+        <v>216</v>
+      </c>
+      <c r="O317" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A318" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B318" t="s">
+        <v>15</v>
+      </c>
+      <c r="C318" t="s">
+        <v>355</v>
+      </c>
+      <c r="D318" t="s">
+        <v>16</v>
+      </c>
+      <c r="E318" t="s">
+        <v>39</v>
+      </c>
+      <c r="F318" t="s">
+        <v>535</v>
+      </c>
+      <c r="G318" t="s">
+        <v>29</v>
+      </c>
+      <c r="H318" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J318" t="s">
+        <v>17</v>
+      </c>
+      <c r="K318" t="s">
+        <v>108</v>
+      </c>
+      <c r="L318" t="s">
+        <v>198</v>
+      </c>
+      <c r="M318" t="s">
+        <v>248</v>
+      </c>
+      <c r="N318" t="s">
+        <v>216</v>
+      </c>
+      <c r="O318" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A319" s="3">
+        <v>60</v>
+      </c>
+      <c r="B319" t="s">
+        <v>15</v>
+      </c>
+      <c r="C319" t="s">
+        <v>534</v>
+      </c>
+      <c r="D319" t="s">
+        <v>16</v>
+      </c>
+      <c r="E319" t="s">
+        <v>39</v>
+      </c>
+      <c r="F319" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="G319" t="s">
+        <v>29</v>
+      </c>
+      <c r="H319" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J319" t="s">
+        <v>17</v>
+      </c>
+      <c r="K319" t="s">
+        <v>108</v>
+      </c>
+      <c r="L319" t="s">
+        <v>110</v>
+      </c>
+      <c r="M319" t="s">
+        <v>120</v>
+      </c>
+      <c r="N319" t="s">
+        <v>140</v>
+      </c>
+      <c r="O319" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A320" s="3">
+        <v>61</v>
+      </c>
+      <c r="B320" t="s">
+        <v>15</v>
+      </c>
+      <c r="C320" t="s">
+        <v>534</v>
+      </c>
+      <c r="D320" t="s">
+        <v>16</v>
+      </c>
+      <c r="E320" t="s">
+        <v>39</v>
+      </c>
+      <c r="F320" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G320" t="s">
+        <v>29</v>
+      </c>
+      <c r="H320" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J320" t="s">
+        <v>17</v>
+      </c>
+      <c r="K320" t="s">
+        <v>108</v>
+      </c>
+      <c r="L320" t="s">
+        <v>110</v>
+      </c>
+      <c r="M320" t="s">
+        <v>120</v>
+      </c>
+      <c r="N320" t="s">
+        <v>140</v>
+      </c>
+      <c r="O320" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A321" s="3">
+        <v>62</v>
+      </c>
+      <c r="B321" t="s">
+        <v>15</v>
+      </c>
+      <c r="C321" t="s">
+        <v>534</v>
+      </c>
+      <c r="D321" t="s">
+        <v>16</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F321" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G321" t="s">
+        <v>29</v>
+      </c>
+      <c r="H321" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J321" t="s">
+        <v>17</v>
+      </c>
+      <c r="K321" t="s">
+        <v>108</v>
+      </c>
+      <c r="L321" t="s">
+        <v>110</v>
+      </c>
+      <c r="M321" t="s">
+        <v>120</v>
+      </c>
+      <c r="N321" t="s">
+        <v>140</v>
+      </c>
+      <c r="O321" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A324" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B324" t="s">
+        <v>15</v>
+      </c>
+      <c r="C324" t="s">
+        <v>355</v>
+      </c>
+      <c r="D324" t="s">
+        <v>16</v>
+      </c>
+      <c r="F324" t="s">
+        <v>536</v>
+      </c>
+      <c r="H324" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="J324" t="s">
+        <v>17</v>
+      </c>
+      <c r="K324" t="s">
+        <v>108</v>
+      </c>
+      <c r="L324" t="s">
+        <v>198</v>
+      </c>
+      <c r="M324" t="s">
+        <v>248</v>
+      </c>
+      <c r="N324" t="s">
+        <v>216</v>
+      </c>
+      <c r="O324" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A325" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B325" t="s">
+        <v>15</v>
+      </c>
+      <c r="C325" t="s">
+        <v>355</v>
+      </c>
+      <c r="D325" t="s">
+        <v>16</v>
+      </c>
+      <c r="E325" t="s">
+        <v>39</v>
+      </c>
+      <c r="F325" t="s">
+        <v>536</v>
+      </c>
+      <c r="G325" t="s">
+        <v>29</v>
+      </c>
+      <c r="H325" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J325" t="s">
+        <v>17</v>
+      </c>
+      <c r="K325" t="s">
+        <v>108</v>
+      </c>
+      <c r="L325" t="s">
+        <v>198</v>
+      </c>
+      <c r="M325" t="s">
+        <v>248</v>
+      </c>
+      <c r="N325" t="s">
+        <v>216</v>
+      </c>
+      <c r="O325" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A326" s="3">
+        <v>60</v>
+      </c>
+      <c r="B326" t="s">
+        <v>15</v>
+      </c>
+      <c r="C326" t="s">
+        <v>534</v>
+      </c>
+      <c r="D326" t="s">
+        <v>16</v>
+      </c>
+      <c r="E326" t="s">
+        <v>39</v>
+      </c>
+      <c r="F326" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="G326" t="s">
+        <v>29</v>
+      </c>
+      <c r="H326" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J326" t="s">
+        <v>17</v>
+      </c>
+      <c r="K326" t="s">
+        <v>108</v>
+      </c>
+      <c r="L326" t="s">
+        <v>110</v>
+      </c>
+      <c r="M326" t="s">
+        <v>120</v>
+      </c>
+      <c r="N326" t="s">
+        <v>140</v>
+      </c>
+      <c r="O326" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A327" s="3">
+        <v>61</v>
+      </c>
+      <c r="B327" t="s">
+        <v>15</v>
+      </c>
+      <c r="C327" t="s">
+        <v>534</v>
+      </c>
+      <c r="D327" t="s">
+        <v>16</v>
+      </c>
+      <c r="E327" t="s">
+        <v>39</v>
+      </c>
+      <c r="F327" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G327" t="s">
+        <v>29</v>
+      </c>
+      <c r="H327" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J327" t="s">
+        <v>17</v>
+      </c>
+      <c r="K327" t="s">
+        <v>108</v>
+      </c>
+      <c r="L327" t="s">
+        <v>110</v>
+      </c>
+      <c r="M327" t="s">
+        <v>120</v>
+      </c>
+      <c r="N327" t="s">
+        <v>140</v>
+      </c>
+      <c r="O327" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A328" s="3">
+        <v>62</v>
+      </c>
+      <c r="B328" t="s">
+        <v>15</v>
+      </c>
+      <c r="C328" t="s">
+        <v>534</v>
+      </c>
+      <c r="D328" t="s">
+        <v>16</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F328" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G328" t="s">
+        <v>29</v>
+      </c>
+      <c r="H328" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J328" t="s">
+        <v>17</v>
+      </c>
+      <c r="K328" t="s">
+        <v>108</v>
+      </c>
+      <c r="L328" t="s">
+        <v>110</v>
+      </c>
+      <c r="M328" t="s">
+        <v>120</v>
+      </c>
+      <c r="N328" t="s">
+        <v>140</v>
+      </c>
+      <c r="O328" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A330" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B330" t="s">
+        <v>15</v>
+      </c>
+      <c r="C330" t="s">
+        <v>355</v>
+      </c>
+      <c r="D330" t="s">
+        <v>16</v>
+      </c>
+      <c r="F330" t="s">
+        <v>533</v>
+      </c>
+      <c r="H330" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J330" t="s">
+        <v>17</v>
+      </c>
+      <c r="K330" t="s">
+        <v>108</v>
+      </c>
+      <c r="L330" t="s">
+        <v>198</v>
+      </c>
+      <c r="M330" t="s">
+        <v>248</v>
+      </c>
+      <c r="N330" t="s">
+        <v>216</v>
+      </c>
+      <c r="O330" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A331" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B331" t="s">
+        <v>15</v>
+      </c>
+      <c r="C331" t="s">
+        <v>355</v>
+      </c>
+      <c r="D331" t="s">
+        <v>16</v>
+      </c>
+      <c r="E331" t="s">
+        <v>39</v>
+      </c>
+      <c r="F331" t="s">
+        <v>533</v>
+      </c>
+      <c r="G331" t="s">
+        <v>29</v>
+      </c>
+      <c r="H331" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J331" t="s">
+        <v>17</v>
+      </c>
+      <c r="K331" t="s">
+        <v>108</v>
+      </c>
+      <c r="L331" t="s">
+        <v>198</v>
+      </c>
+      <c r="M331" t="s">
+        <v>248</v>
+      </c>
+      <c r="N331" t="s">
+        <v>216</v>
+      </c>
+      <c r="O331" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A335" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B335" t="s">
+        <v>15</v>
+      </c>
+      <c r="C335" t="s">
+        <v>355</v>
+      </c>
+      <c r="D335" t="s">
+        <v>16</v>
+      </c>
+      <c r="E335" t="s">
+        <v>39</v>
+      </c>
+      <c r="F335" t="s">
+        <v>537</v>
+      </c>
+      <c r="G335" t="s">
+        <v>29</v>
+      </c>
+      <c r="H335" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J335" t="s">
+        <v>17</v>
+      </c>
+      <c r="K335" t="s">
+        <v>108</v>
+      </c>
+      <c r="L335" t="s">
+        <v>198</v>
+      </c>
+      <c r="M335" t="s">
+        <v>248</v>
+      </c>
+      <c r="N335" t="s">
+        <v>216</v>
+      </c>
+      <c r="O335" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A336" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B336" t="s">
+        <v>15</v>
+      </c>
+      <c r="C336" t="s">
+        <v>355</v>
+      </c>
+      <c r="D336" t="s">
+        <v>16</v>
+      </c>
+      <c r="F336" t="s">
+        <v>538</v>
+      </c>
+      <c r="H336" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="J336" t="s">
+        <v>17</v>
+      </c>
+      <c r="K336" t="s">
+        <v>108</v>
+      </c>
+      <c r="L336" t="s">
+        <v>198</v>
+      </c>
+      <c r="M336" t="s">
+        <v>248</v>
+      </c>
+      <c r="N336" t="s">
+        <v>216</v>
+      </c>
+      <c r="O336" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A337" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B337" t="s">
+        <v>15</v>
+      </c>
+      <c r="C337" t="s">
+        <v>355</v>
+      </c>
+      <c r="D337" t="s">
+        <v>16</v>
+      </c>
+      <c r="E337" t="s">
+        <v>39</v>
+      </c>
+      <c r="F337" t="s">
+        <v>539</v>
+      </c>
+      <c r="G337" t="s">
+        <v>29</v>
+      </c>
+      <c r="H337" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J337" t="s">
+        <v>17</v>
+      </c>
+      <c r="K337" t="s">
+        <v>108</v>
+      </c>
+      <c r="L337" t="s">
+        <v>198</v>
+      </c>
+      <c r="M337" t="s">
+        <v>248</v>
+      </c>
+      <c r="N337" t="s">
+        <v>216</v>
+      </c>
+      <c r="O337" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A338" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B338" t="s">
+        <v>15</v>
+      </c>
+      <c r="C338" t="s">
+        <v>355</v>
+      </c>
+      <c r="D338" t="s">
+        <v>16</v>
+      </c>
+      <c r="E338" t="s">
+        <v>39</v>
+      </c>
+      <c r="F338" t="s">
+        <v>539</v>
+      </c>
+      <c r="G338" t="s">
+        <v>540</v>
+      </c>
+      <c r="H338" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J338" t="s">
+        <v>17</v>
+      </c>
+      <c r="K338" t="s">
+        <v>108</v>
+      </c>
+      <c r="L338" t="s">
+        <v>198</v>
+      </c>
+      <c r="M338" t="s">
+        <v>248</v>
+      </c>
+      <c r="N338" t="s">
+        <v>216</v>
+      </c>
+      <c r="O338" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A339" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B339" t="s">
+        <v>15</v>
+      </c>
+      <c r="C339" t="s">
+        <v>276</v>
+      </c>
+      <c r="D339" t="s">
+        <v>16</v>
+      </c>
+      <c r="H339" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="O339" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A340" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B340" t="s">
+        <v>15</v>
+      </c>
+      <c r="C340" t="s">
+        <v>355</v>
+      </c>
+      <c r="D340" t="s">
+        <v>16</v>
+      </c>
+      <c r="E340" t="s">
+        <v>39</v>
+      </c>
+      <c r="F340" t="s">
+        <v>542</v>
+      </c>
+      <c r="G340" t="s">
+        <v>29</v>
+      </c>
+      <c r="H340" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J340" t="s">
+        <v>17</v>
+      </c>
+      <c r="K340" t="s">
+        <v>108</v>
+      </c>
+      <c r="L340" t="s">
+        <v>198</v>
+      </c>
+      <c r="M340" t="s">
+        <v>248</v>
+      </c>
+      <c r="N340" t="s">
+        <v>216</v>
+      </c>
+      <c r="O340" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A341" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B341" t="s">
+        <v>15</v>
+      </c>
+      <c r="C341" t="s">
+        <v>355</v>
+      </c>
+      <c r="D341" t="s">
+        <v>16</v>
+      </c>
+      <c r="E341" t="s">
+        <v>39</v>
+      </c>
+      <c r="F341" t="s">
+        <v>542</v>
+      </c>
+      <c r="G341" t="s">
+        <v>543</v>
+      </c>
+      <c r="H341" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J341" t="s">
+        <v>17</v>
+      </c>
+      <c r="K341" t="s">
+        <v>108</v>
+      </c>
+      <c r="L341" t="s">
+        <v>198</v>
+      </c>
+      <c r="M341" t="s">
+        <v>248</v>
+      </c>
+      <c r="N341" t="s">
+        <v>216</v>
+      </c>
+      <c r="O341" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A342" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B342" t="s">
+        <v>15</v>
+      </c>
+      <c r="C342" t="s">
+        <v>276</v>
+      </c>
+      <c r="D342" t="s">
+        <v>16</v>
+      </c>
+      <c r="H342" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="O342" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A343" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B343" t="s">
+        <v>15</v>
+      </c>
+      <c r="C343" t="s">
+        <v>355</v>
+      </c>
+      <c r="D343" t="s">
+        <v>16</v>
+      </c>
+      <c r="E343" t="s">
+        <v>39</v>
+      </c>
+      <c r="F343" t="s">
+        <v>537</v>
+      </c>
+      <c r="G343" t="s">
+        <v>29</v>
+      </c>
+      <c r="H343" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J343" t="s">
+        <v>17</v>
+      </c>
+      <c r="K343" t="s">
+        <v>108</v>
+      </c>
+      <c r="L343" t="s">
+        <v>198</v>
+      </c>
+      <c r="M343" t="s">
+        <v>248</v>
+      </c>
+      <c r="N343" t="s">
+        <v>216</v>
+      </c>
+      <c r="O343" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A344" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B344" t="s">
+        <v>15</v>
+      </c>
+      <c r="C344" t="s">
+        <v>355</v>
+      </c>
+      <c r="D344" t="s">
+        <v>16</v>
+      </c>
+      <c r="E344" t="s">
+        <v>39</v>
+      </c>
+      <c r="F344" t="s">
+        <v>537</v>
+      </c>
+      <c r="G344" t="s">
+        <v>30</v>
+      </c>
+      <c r="H344" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J344" t="s">
+        <v>17</v>
+      </c>
+      <c r="K344" t="s">
+        <v>108</v>
+      </c>
+      <c r="L344" t="s">
+        <v>198</v>
+      </c>
+      <c r="M344" t="s">
+        <v>248</v>
+      </c>
+      <c r="N344" t="s">
+        <v>216</v>
+      </c>
+      <c r="O344" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A345" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B345" t="s">
+        <v>15</v>
+      </c>
+      <c r="C345" t="s">
+        <v>355</v>
+      </c>
+      <c r="D345" t="s">
+        <v>16</v>
+      </c>
+      <c r="E345" t="s">
+        <v>39</v>
+      </c>
+      <c r="F345" t="s">
+        <v>545</v>
+      </c>
+      <c r="G345" t="s">
+        <v>29</v>
+      </c>
+      <c r="H345" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J345" t="s">
+        <v>17</v>
+      </c>
+      <c r="K345" t="s">
+        <v>108</v>
+      </c>
+      <c r="L345" t="s">
+        <v>198</v>
+      </c>
+      <c r="M345" t="s">
+        <v>248</v>
+      </c>
+      <c r="N345" t="s">
+        <v>216</v>
+      </c>
+      <c r="O345" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A346" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B346" t="s">
+        <v>15</v>
+      </c>
+      <c r="C346" t="s">
+        <v>355</v>
+      </c>
+      <c r="D346" t="s">
+        <v>16</v>
+      </c>
+      <c r="E346" t="s">
+        <v>39</v>
+      </c>
+      <c r="F346" t="s">
+        <v>546</v>
+      </c>
+      <c r="G346" t="s">
+        <v>29</v>
+      </c>
+      <c r="H346" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J346" t="s">
+        <v>17</v>
+      </c>
+      <c r="K346" t="s">
+        <v>108</v>
+      </c>
+      <c r="L346" t="s">
+        <v>198</v>
+      </c>
+      <c r="M346" t="s">
+        <v>248</v>
+      </c>
+      <c r="N346" t="s">
+        <v>216</v>
+      </c>
+      <c r="O346" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A347" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B347" t="s">
+        <v>15</v>
+      </c>
+      <c r="C347" t="s">
+        <v>355</v>
+      </c>
+      <c r="D347" t="s">
+        <v>16</v>
+      </c>
+      <c r="E347" t="s">
+        <v>39</v>
+      </c>
+      <c r="F347" t="s">
+        <v>546</v>
+      </c>
+      <c r="G347" t="s">
+        <v>547</v>
+      </c>
+      <c r="H347" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J347" t="s">
+        <v>17</v>
+      </c>
+      <c r="K347" t="s">
+        <v>108</v>
+      </c>
+      <c r="L347" t="s">
+        <v>198</v>
+      </c>
+      <c r="M347" t="s">
+        <v>248</v>
+      </c>
+      <c r="N347" t="s">
+        <v>216</v>
+      </c>
+      <c r="O347" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A348" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B348" t="s">
+        <v>15</v>
+      </c>
+      <c r="C348" t="s">
+        <v>276</v>
+      </c>
+      <c r="D348" t="s">
+        <v>16</v>
+      </c>
+      <c r="H348" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="O348" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A349" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B349" t="s">
+        <v>15</v>
+      </c>
+      <c r="C349" t="s">
+        <v>355</v>
+      </c>
+      <c r="D349" t="s">
+        <v>16</v>
+      </c>
+      <c r="E349" t="s">
+        <v>39</v>
+      </c>
+      <c r="F349" t="s">
+        <v>247</v>
+      </c>
+      <c r="G349" t="s">
+        <v>29</v>
+      </c>
+      <c r="H349" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J349" t="s">
+        <v>17</v>
+      </c>
+      <c r="K349" t="s">
+        <v>108</v>
+      </c>
+      <c r="L349" t="s">
+        <v>198</v>
+      </c>
+      <c r="M349" t="s">
+        <v>248</v>
+      </c>
+      <c r="N349" t="s">
+        <v>216</v>
+      </c>
+      <c r="O349" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A350" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B350" t="s">
+        <v>15</v>
+      </c>
+      <c r="C350" t="s">
+        <v>355</v>
+      </c>
+      <c r="D350" t="s">
+        <v>16</v>
+      </c>
+      <c r="E350" t="s">
+        <v>39</v>
+      </c>
+      <c r="F350" t="s">
+        <v>549</v>
+      </c>
+      <c r="G350" t="s">
+        <v>30</v>
+      </c>
+      <c r="H350" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J350" t="s">
+        <v>17</v>
+      </c>
+      <c r="K350" t="s">
+        <v>108</v>
+      </c>
+      <c r="L350" t="s">
+        <v>198</v>
+      </c>
+      <c r="M350" t="s">
+        <v>248</v>
+      </c>
+      <c r="N350" t="s">
+        <v>216</v>
+      </c>
+      <c r="O350" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A351" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B351" t="s">
+        <v>15</v>
+      </c>
+      <c r="C351" t="s">
+        <v>355</v>
+      </c>
+      <c r="D351" t="s">
+        <v>16</v>
+      </c>
+      <c r="E351" t="s">
+        <v>39</v>
+      </c>
+      <c r="F351" t="s">
+        <v>247</v>
+      </c>
+      <c r="G351" t="s">
+        <v>29</v>
+      </c>
+      <c r="H351" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J351" t="s">
+        <v>17</v>
+      </c>
+      <c r="K351" t="s">
+        <v>108</v>
+      </c>
+      <c r="L351" t="s">
+        <v>198</v>
+      </c>
+      <c r="M351" t="s">
+        <v>248</v>
+      </c>
+      <c r="N351" t="s">
+        <v>216</v>
+      </c>
+      <c r="O351" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A357" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B357" t="s">
+        <v>15</v>
+      </c>
+      <c r="C357" t="s">
+        <v>355</v>
+      </c>
+      <c r="D357" t="s">
+        <v>16</v>
+      </c>
+      <c r="F357" t="s">
+        <v>550</v>
+      </c>
+      <c r="H357" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J357" t="s">
+        <v>17</v>
+      </c>
+      <c r="K357" t="s">
+        <v>108</v>
+      </c>
+      <c r="L357" t="s">
+        <v>198</v>
+      </c>
+      <c r="M357" t="s">
+        <v>248</v>
+      </c>
+      <c r="N357" t="s">
+        <v>216</v>
+      </c>
+      <c r="O357" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A358" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B358" t="s">
+        <v>15</v>
+      </c>
+      <c r="C358" t="s">
+        <v>355</v>
+      </c>
+      <c r="D358" t="s">
+        <v>16</v>
+      </c>
+      <c r="E358" t="s">
+        <v>39</v>
+      </c>
+      <c r="F358" t="s">
+        <v>550</v>
+      </c>
+      <c r="G358" t="s">
+        <v>29</v>
+      </c>
+      <c r="H358" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J358" t="s">
+        <v>17</v>
+      </c>
+      <c r="K358" t="s">
+        <v>108</v>
+      </c>
+      <c r="L358" t="s">
+        <v>198</v>
+      </c>
+      <c r="M358" t="s">
+        <v>248</v>
+      </c>
+      <c r="N358" t="s">
+        <v>216</v>
+      </c>
+      <c r="O358" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A359" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B359" t="s">
+        <v>15</v>
+      </c>
+      <c r="C359" t="s">
+        <v>355</v>
+      </c>
+      <c r="D359" t="s">
+        <v>16</v>
+      </c>
+      <c r="E359" t="s">
+        <v>39</v>
+      </c>
+      <c r="F359" t="s">
+        <v>551</v>
+      </c>
+      <c r="G359" t="s">
+        <v>29</v>
+      </c>
+      <c r="H359" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J359" t="s">
+        <v>17</v>
+      </c>
+      <c r="K359" t="s">
+        <v>108</v>
+      </c>
+      <c r="L359" t="s">
+        <v>198</v>
+      </c>
+      <c r="M359" t="s">
+        <v>248</v>
+      </c>
+      <c r="N359" t="s">
+        <v>216</v>
+      </c>
+      <c r="O359" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A360" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B360" t="s">
+        <v>15</v>
+      </c>
+      <c r="C360" t="s">
+        <v>355</v>
+      </c>
+      <c r="D360" t="s">
+        <v>16</v>
+      </c>
+      <c r="E360" t="s">
+        <v>39</v>
+      </c>
+      <c r="F360" t="s">
+        <v>552</v>
+      </c>
+      <c r="G360" t="s">
+        <v>30</v>
+      </c>
+      <c r="H360" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J360" t="s">
+        <v>17</v>
+      </c>
+      <c r="K360" t="s">
+        <v>108</v>
+      </c>
+      <c r="L360" t="s">
+        <v>198</v>
+      </c>
+      <c r="M360" t="s">
+        <v>248</v>
+      </c>
+      <c r="N360" t="s">
+        <v>216</v>
+      </c>
+      <c r="O360" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A361" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B361" t="s">
+        <v>15</v>
+      </c>
+      <c r="C361" t="s">
+        <v>355</v>
+      </c>
+      <c r="D361" t="s">
+        <v>16</v>
+      </c>
+      <c r="E361" t="s">
+        <v>39</v>
+      </c>
+      <c r="F361" t="s">
+        <v>247</v>
+      </c>
+      <c r="G361" t="s">
+        <v>29</v>
+      </c>
+      <c r="H361" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J361" t="s">
+        <v>17</v>
+      </c>
+      <c r="K361" t="s">
+        <v>108</v>
+      </c>
+      <c r="L361" t="s">
+        <v>198</v>
+      </c>
+      <c r="M361" t="s">
+        <v>248</v>
+      </c>
+      <c r="N361" t="s">
+        <v>216</v>
+      </c>
+      <c r="O361" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A366" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B366" t="s">
+        <v>15</v>
+      </c>
+      <c r="C366" t="s">
+        <v>355</v>
+      </c>
+      <c r="D366" t="s">
+        <v>16</v>
+      </c>
+      <c r="E366" t="s">
+        <v>39</v>
+      </c>
+      <c r="F366" t="s">
+        <v>553</v>
+      </c>
+      <c r="G366" t="s">
+        <v>29</v>
+      </c>
+      <c r="H366" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J366" t="s">
+        <v>17</v>
+      </c>
+      <c r="K366" t="s">
+        <v>108</v>
+      </c>
+      <c r="L366" t="s">
+        <v>198</v>
+      </c>
+      <c r="M366" t="s">
+        <v>248</v>
+      </c>
+      <c r="N366" t="s">
+        <v>216</v>
+      </c>
+      <c r="O366" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A367" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B367" t="s">
+        <v>15</v>
+      </c>
+      <c r="C367" t="s">
+        <v>355</v>
+      </c>
+      <c r="D367" t="s">
+        <v>16</v>
+      </c>
+      <c r="E367" t="s">
+        <v>39</v>
+      </c>
+      <c r="F367" t="s">
+        <v>555</v>
+      </c>
+      <c r="G367" t="s">
+        <v>30</v>
+      </c>
+      <c r="H367" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J367" t="s">
+        <v>17</v>
+      </c>
+      <c r="K367" t="s">
+        <v>108</v>
+      </c>
+      <c r="L367" t="s">
+        <v>198</v>
+      </c>
+      <c r="M367" t="s">
+        <v>248</v>
+      </c>
+      <c r="N367" t="s">
+        <v>216</v>
+      </c>
+      <c r="O367" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A368" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B368" t="s">
+        <v>15</v>
+      </c>
+      <c r="C368" t="s">
+        <v>355</v>
+      </c>
+      <c r="D368" t="s">
+        <v>16</v>
+      </c>
+      <c r="E368" t="s">
+        <v>39</v>
+      </c>
+      <c r="F368" t="s">
+        <v>554</v>
+      </c>
+      <c r="G368" t="s">
+        <v>29</v>
+      </c>
+      <c r="H368" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J368" t="s">
+        <v>17</v>
+      </c>
+      <c r="K368" t="s">
+        <v>108</v>
+      </c>
+      <c r="L368" t="s">
+        <v>198</v>
+      </c>
+      <c r="M368" t="s">
+        <v>248</v>
+      </c>
+      <c r="N368" t="s">
+        <v>216</v>
+      </c>
+      <c r="O368" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A369" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B369" t="s">
+        <v>15</v>
+      </c>
+      <c r="C369" t="s">
+        <v>355</v>
+      </c>
+      <c r="D369" t="s">
+        <v>16</v>
+      </c>
+      <c r="E369" t="s">
+        <v>39</v>
+      </c>
+      <c r="F369" t="s">
+        <v>556</v>
+      </c>
+      <c r="G369" t="s">
+        <v>29</v>
+      </c>
+      <c r="H369" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J369" t="s">
+        <v>17</v>
+      </c>
+      <c r="K369" t="s">
+        <v>108</v>
+      </c>
+      <c r="L369" t="s">
+        <v>198</v>
+      </c>
+      <c r="M369" t="s">
+        <v>248</v>
+      </c>
+      <c r="N369" t="s">
+        <v>216</v>
+      </c>
+      <c r="O369" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="370" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A370" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B370" t="s">
+        <v>15</v>
+      </c>
+      <c r="C370" t="s">
+        <v>355</v>
+      </c>
+      <c r="D370" t="s">
+        <v>16</v>
+      </c>
+      <c r="E370" t="s">
+        <v>39</v>
+      </c>
+      <c r="F370" t="s">
+        <v>556</v>
+      </c>
+      <c r="G370" t="s">
+        <v>29</v>
+      </c>
+      <c r="H370" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J370" t="s">
+        <v>17</v>
+      </c>
+      <c r="K370" t="s">
+        <v>108</v>
+      </c>
+      <c r="L370" t="s">
+        <v>198</v>
+      </c>
+      <c r="M370" t="s">
+        <v>248</v>
+      </c>
+      <c r="N370" t="s">
+        <v>216</v>
+      </c>
+      <c r="O370" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="371" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A371" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B371" t="s">
+        <v>15</v>
+      </c>
+      <c r="C371" t="s">
+        <v>355</v>
+      </c>
+      <c r="D371" t="s">
+        <v>16</v>
+      </c>
+      <c r="E371" t="s">
+        <v>39</v>
+      </c>
+      <c r="F371" t="s">
+        <v>556</v>
+      </c>
+      <c r="G371" t="s">
+        <v>557</v>
+      </c>
+      <c r="H371" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J371" t="s">
+        <v>17</v>
+      </c>
+      <c r="K371" t="s">
+        <v>108</v>
+      </c>
+      <c r="L371" t="s">
+        <v>198</v>
+      </c>
+      <c r="M371" t="s">
+        <v>248</v>
+      </c>
+      <c r="N371" t="s">
+        <v>216</v>
+      </c>
+      <c r="O371" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="372" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A372" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B372" t="s">
+        <v>15</v>
+      </c>
+      <c r="C372" t="s">
+        <v>276</v>
+      </c>
+      <c r="D372" t="s">
+        <v>16</v>
+      </c>
+      <c r="H372" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="O372" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="373" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A373" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B373" t="s">
+        <v>15</v>
+      </c>
+      <c r="C373" t="s">
+        <v>276</v>
+      </c>
+      <c r="D373" t="s">
+        <v>16</v>
+      </c>
+      <c r="H373" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O373" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="374" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A374" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B374" t="s">
+        <v>15</v>
+      </c>
+      <c r="C374" t="s">
+        <v>355</v>
+      </c>
+      <c r="D374" t="s">
+        <v>16</v>
+      </c>
+      <c r="F374" t="s">
+        <v>559</v>
+      </c>
+      <c r="H374" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="J374" t="s">
+        <v>17</v>
+      </c>
+      <c r="K374" t="s">
+        <v>108</v>
+      </c>
+      <c r="L374" t="s">
+        <v>198</v>
+      </c>
+      <c r="M374" t="s">
+        <v>248</v>
+      </c>
+      <c r="N374" t="s">
+        <v>216</v>
+      </c>
+      <c r="O374" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="375" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A375" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B375" t="s">
+        <v>15</v>
+      </c>
+      <c r="C375" t="s">
+        <v>355</v>
+      </c>
+      <c r="D375" t="s">
+        <v>16</v>
+      </c>
+      <c r="E375" t="s">
+        <v>39</v>
+      </c>
+      <c r="F375" t="s">
+        <v>559</v>
+      </c>
+      <c r="G375" t="s">
+        <v>29</v>
+      </c>
+      <c r="H375" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J375" t="s">
+        <v>17</v>
+      </c>
+      <c r="K375" t="s">
+        <v>108</v>
+      </c>
+      <c r="L375" t="s">
+        <v>198</v>
+      </c>
+      <c r="M375" t="s">
+        <v>248</v>
+      </c>
+      <c r="N375" t="s">
+        <v>216</v>
+      </c>
+      <c r="O375" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="376" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A376" s="3">
+        <v>60</v>
+      </c>
+      <c r="B376" t="s">
+        <v>15</v>
+      </c>
+      <c r="C376" t="s">
+        <v>534</v>
+      </c>
+      <c r="D376" t="s">
+        <v>16</v>
+      </c>
+      <c r="E376" t="s">
+        <v>39</v>
+      </c>
+      <c r="F376" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="G376" t="s">
+        <v>29</v>
+      </c>
+      <c r="H376" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J376" t="s">
+        <v>17</v>
+      </c>
+      <c r="K376" t="s">
+        <v>108</v>
+      </c>
+      <c r="L376" t="s">
+        <v>110</v>
+      </c>
+      <c r="M376" t="s">
+        <v>120</v>
+      </c>
+      <c r="N376" t="s">
+        <v>140</v>
+      </c>
+      <c r="O376" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="377" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A377" s="3">
+        <v>61</v>
+      </c>
+      <c r="B377" t="s">
+        <v>15</v>
+      </c>
+      <c r="C377" t="s">
+        <v>534</v>
+      </c>
+      <c r="D377" t="s">
+        <v>16</v>
+      </c>
+      <c r="E377" t="s">
+        <v>39</v>
+      </c>
+      <c r="F377" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G377" t="s">
+        <v>29</v>
+      </c>
+      <c r="H377" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J377" t="s">
+        <v>17</v>
+      </c>
+      <c r="K377" t="s">
+        <v>108</v>
+      </c>
+      <c r="L377" t="s">
+        <v>110</v>
+      </c>
+      <c r="M377" t="s">
+        <v>120</v>
+      </c>
+      <c r="N377" t="s">
+        <v>140</v>
+      </c>
+      <c r="O377" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="378" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A378" s="3">
+        <v>62</v>
+      </c>
+      <c r="B378" t="s">
+        <v>15</v>
+      </c>
+      <c r="C378" t="s">
+        <v>534</v>
+      </c>
+      <c r="D378" t="s">
+        <v>16</v>
+      </c>
+      <c r="E378" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F378" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G378" t="s">
+        <v>29</v>
+      </c>
+      <c r="H378" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J378" t="s">
+        <v>17</v>
+      </c>
+      <c r="K378" t="s">
+        <v>108</v>
+      </c>
+      <c r="L378" t="s">
+        <v>110</v>
+      </c>
+      <c r="M378" t="s">
+        <v>120</v>
+      </c>
+      <c r="N378" t="s">
+        <v>140</v>
+      </c>
+      <c r="O378" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="379" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A379" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B379" t="s">
+        <v>15</v>
+      </c>
+      <c r="C379" t="s">
+        <v>276</v>
+      </c>
+      <c r="D379" t="s">
+        <v>16</v>
+      </c>
+      <c r="H379" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="O379" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="380" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A380" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B380" t="s">
+        <v>15</v>
+      </c>
+      <c r="C380" t="s">
+        <v>355</v>
+      </c>
+      <c r="D380" t="s">
+        <v>16</v>
+      </c>
+      <c r="F380" t="s">
+        <v>560</v>
+      </c>
+      <c r="H380" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J380" t="s">
+        <v>17</v>
+      </c>
+      <c r="K380" t="s">
+        <v>108</v>
+      </c>
+      <c r="L380" t="s">
+        <v>198</v>
+      </c>
+      <c r="M380" t="s">
+        <v>248</v>
+      </c>
+      <c r="N380" t="s">
+        <v>216</v>
+      </c>
+      <c r="O380" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="381" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A381" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B381" t="s">
+        <v>15</v>
+      </c>
+      <c r="C381" t="s">
+        <v>355</v>
+      </c>
+      <c r="D381" t="s">
+        <v>16</v>
+      </c>
+      <c r="E381" t="s">
+        <v>39</v>
+      </c>
+      <c r="F381" t="s">
+        <v>560</v>
+      </c>
+      <c r="G381" t="s">
+        <v>29</v>
+      </c>
+      <c r="H381" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J381" t="s">
+        <v>17</v>
+      </c>
+      <c r="K381" t="s">
+        <v>108</v>
+      </c>
+      <c r="L381" t="s">
+        <v>198</v>
+      </c>
+      <c r="M381" t="s">
+        <v>248</v>
+      </c>
+      <c r="N381" t="s">
+        <v>216</v>
+      </c>
+      <c r="O381" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="384" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A384" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B384" t="s">
+        <v>15</v>
+      </c>
+      <c r="C384" t="s">
+        <v>355</v>
+      </c>
+      <c r="D384" t="s">
+        <v>16</v>
+      </c>
+      <c r="E384" t="s">
+        <v>39</v>
+      </c>
+      <c r="F384" t="s">
+        <v>561</v>
+      </c>
+      <c r="G384" t="s">
+        <v>29</v>
+      </c>
+      <c r="H384" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J384" t="s">
+        <v>17</v>
+      </c>
+      <c r="K384" t="s">
+        <v>108</v>
+      </c>
+      <c r="L384" t="s">
+        <v>198</v>
+      </c>
+      <c r="M384" t="s">
+        <v>248</v>
+      </c>
+      <c r="N384" t="s">
+        <v>216</v>
+      </c>
+      <c r="O384" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="385" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A385" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B385" t="s">
+        <v>15</v>
+      </c>
+      <c r="C385" t="s">
+        <v>355</v>
+      </c>
+      <c r="D385" t="s">
+        <v>16</v>
+      </c>
+      <c r="E385" t="s">
+        <v>39</v>
+      </c>
+      <c r="F385" t="s">
+        <v>562</v>
+      </c>
+      <c r="G385" t="s">
+        <v>29</v>
+      </c>
+      <c r="H385" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J385" t="s">
+        <v>17</v>
+      </c>
+      <c r="K385" t="s">
+        <v>108</v>
+      </c>
+      <c r="L385" t="s">
+        <v>198</v>
+      </c>
+      <c r="M385" t="s">
+        <v>248</v>
+      </c>
+      <c r="N385" t="s">
+        <v>216</v>
+      </c>
+      <c r="O385" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="386" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A386" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B386" t="s">
+        <v>15</v>
+      </c>
+      <c r="C386" t="s">
+        <v>355</v>
+      </c>
+      <c r="D386" t="s">
+        <v>16</v>
+      </c>
+      <c r="E386" t="s">
+        <v>39</v>
+      </c>
+      <c r="F386" t="s">
+        <v>562</v>
+      </c>
+      <c r="G386" t="s">
+        <v>563</v>
+      </c>
+      <c r="H386" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J386" t="s">
+        <v>17</v>
+      </c>
+      <c r="K386" t="s">
+        <v>108</v>
+      </c>
+      <c r="L386" t="s">
+        <v>198</v>
+      </c>
+      <c r="M386" t="s">
+        <v>248</v>
+      </c>
+      <c r="N386" t="s">
+        <v>216</v>
+      </c>
+      <c r="O386" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="387" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A387" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B387" t="s">
+        <v>15</v>
+      </c>
+      <c r="C387" t="s">
+        <v>276</v>
+      </c>
+      <c r="D387" t="s">
+        <v>16</v>
+      </c>
+      <c r="H387" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="O387" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="388" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A388" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B388" t="s">
+        <v>15</v>
+      </c>
+      <c r="C388" t="s">
+        <v>355</v>
+      </c>
+      <c r="D388" t="s">
+        <v>16</v>
+      </c>
+      <c r="E388" t="s">
+        <v>39</v>
+      </c>
+      <c r="F388" t="s">
+        <v>559</v>
+      </c>
+      <c r="G388" t="s">
+        <v>29</v>
+      </c>
+      <c r="H388" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J388" t="s">
+        <v>17</v>
+      </c>
+      <c r="K388" t="s">
+        <v>108</v>
+      </c>
+      <c r="L388" t="s">
+        <v>198</v>
+      </c>
+      <c r="M388" t="s">
+        <v>248</v>
+      </c>
+      <c r="N388" t="s">
+        <v>216</v>
+      </c>
+      <c r="O388" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="389" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A389" s="3">
+        <v>60</v>
+      </c>
+      <c r="B389" t="s">
+        <v>15</v>
+      </c>
+      <c r="C389" t="s">
+        <v>534</v>
+      </c>
+      <c r="D389" t="s">
+        <v>16</v>
+      </c>
+      <c r="E389" t="s">
+        <v>39</v>
+      </c>
+      <c r="F389" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="G389" t="s">
+        <v>29</v>
+      </c>
+      <c r="H389" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J389" t="s">
+        <v>17</v>
+      </c>
+      <c r="K389" t="s">
+        <v>108</v>
+      </c>
+      <c r="L389" t="s">
+        <v>110</v>
+      </c>
+      <c r="M389" t="s">
+        <v>120</v>
+      </c>
+      <c r="N389" t="s">
+        <v>140</v>
+      </c>
+      <c r="O389" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="390" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A390" s="3">
+        <v>61</v>
+      </c>
+      <c r="B390" t="s">
+        <v>15</v>
+      </c>
+      <c r="C390" t="s">
+        <v>534</v>
+      </c>
+      <c r="D390" t="s">
+        <v>16</v>
+      </c>
+      <c r="E390" t="s">
+        <v>39</v>
+      </c>
+      <c r="F390" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G390" t="s">
+        <v>29</v>
+      </c>
+      <c r="H390" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J390" t="s">
+        <v>17</v>
+      </c>
+      <c r="K390" t="s">
+        <v>108</v>
+      </c>
+      <c r="L390" t="s">
+        <v>110</v>
+      </c>
+      <c r="M390" t="s">
+        <v>120</v>
+      </c>
+      <c r="N390" t="s">
+        <v>140</v>
+      </c>
+      <c r="O390" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="391" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A391" s="3">
+        <v>62</v>
+      </c>
+      <c r="B391" t="s">
+        <v>15</v>
+      </c>
+      <c r="C391" t="s">
+        <v>534</v>
+      </c>
+      <c r="D391" t="s">
+        <v>16</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F391" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G391" t="s">
+        <v>29</v>
+      </c>
+      <c r="H391" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J391" t="s">
+        <v>17</v>
+      </c>
+      <c r="K391" t="s">
+        <v>108</v>
+      </c>
+      <c r="L391" t="s">
+        <v>110</v>
+      </c>
+      <c r="M391" t="s">
+        <v>120</v>
+      </c>
+      <c r="N391" t="s">
+        <v>140</v>
+      </c>
+      <c r="O391" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="392" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A392" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B392" t="s">
+        <v>15</v>
+      </c>
+      <c r="C392" t="s">
+        <v>276</v>
+      </c>
+      <c r="D392" t="s">
+        <v>16</v>
+      </c>
+      <c r="H392" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="O392" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="393" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A393" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B393" t="s">
+        <v>15</v>
+      </c>
+      <c r="C393" t="s">
+        <v>355</v>
+      </c>
+      <c r="D393" t="s">
+        <v>16</v>
+      </c>
+      <c r="E393" t="s">
+        <v>39</v>
+      </c>
+      <c r="F393" t="s">
+        <v>565</v>
+      </c>
+      <c r="G393" t="s">
+        <v>30</v>
+      </c>
+      <c r="H393" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J393" t="s">
+        <v>17</v>
+      </c>
+      <c r="K393" t="s">
+        <v>108</v>
+      </c>
+      <c r="L393" t="s">
+        <v>198</v>
+      </c>
+      <c r="M393" t="s">
+        <v>248</v>
+      </c>
+      <c r="N393" t="s">
+        <v>216</v>
+      </c>
+      <c r="O393" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="394" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A394" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B394" t="s">
+        <v>15</v>
+      </c>
+      <c r="C394" t="s">
+        <v>355</v>
+      </c>
+      <c r="D394" t="s">
+        <v>16</v>
+      </c>
+      <c r="E394" t="s">
+        <v>39</v>
+      </c>
+      <c r="F394" t="s">
+        <v>565</v>
+      </c>
+      <c r="G394" t="s">
+        <v>29</v>
+      </c>
+      <c r="H394" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J394" t="s">
+        <v>17</v>
+      </c>
+      <c r="K394" t="s">
+        <v>108</v>
+      </c>
+      <c r="L394" t="s">
+        <v>198</v>
+      </c>
+      <c r="M394" t="s">
+        <v>248</v>
+      </c>
+      <c r="N394" t="s">
+        <v>216</v>
+      </c>
+      <c r="O394" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="395" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A395" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B395" t="s">
+        <v>15</v>
+      </c>
+      <c r="C395" t="s">
+        <v>355</v>
+      </c>
+      <c r="D395" t="s">
+        <v>16</v>
+      </c>
+      <c r="E395" t="s">
+        <v>39</v>
+      </c>
+      <c r="F395" t="s">
+        <v>545</v>
+      </c>
+      <c r="G395" t="s">
+        <v>29</v>
+      </c>
+      <c r="H395" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J395" t="s">
+        <v>17</v>
+      </c>
+      <c r="K395" t="s">
+        <v>108</v>
+      </c>
+      <c r="L395" t="s">
+        <v>198</v>
+      </c>
+      <c r="M395" t="s">
+        <v>248</v>
+      </c>
+      <c r="N395" t="s">
+        <v>216</v>
+      </c>
+      <c r="O395" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="396" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A396" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B396" t="s">
+        <v>15</v>
+      </c>
+      <c r="C396" t="s">
+        <v>355</v>
+      </c>
+      <c r="D396" t="s">
+        <v>16</v>
+      </c>
+      <c r="E396" t="s">
+        <v>39</v>
+      </c>
+      <c r="F396" t="s">
+        <v>566</v>
+      </c>
+      <c r="G396" t="s">
+        <v>30</v>
+      </c>
+      <c r="H396" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J396" t="s">
+        <v>17</v>
+      </c>
+      <c r="K396" t="s">
+        <v>108</v>
+      </c>
+      <c r="L396" t="s">
+        <v>198</v>
+      </c>
+      <c r="M396" t="s">
+        <v>248</v>
+      </c>
+      <c r="N396" t="s">
+        <v>216</v>
+      </c>
+      <c r="O396" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="397" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A397" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B397" t="s">
+        <v>15</v>
+      </c>
+      <c r="C397" t="s">
+        <v>355</v>
+      </c>
+      <c r="D397" t="s">
+        <v>16</v>
+      </c>
+      <c r="E397" t="s">
+        <v>39</v>
+      </c>
+      <c r="F397" t="s">
+        <v>507</v>
+      </c>
+      <c r="G397" t="s">
+        <v>29</v>
+      </c>
+      <c r="H397" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J397" t="s">
+        <v>17</v>
+      </c>
+      <c r="K397" t="s">
+        <v>108</v>
+      </c>
+      <c r="L397" t="s">
+        <v>198</v>
+      </c>
+      <c r="M397" t="s">
+        <v>248</v>
+      </c>
+      <c r="N397" t="s">
+        <v>216</v>
+      </c>
+      <c r="O397" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -11793,10 +15022,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AI3"/>
+  <dimension ref="A1:AO3"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="AI1" sqref="AI1"/>
+    <sheetView topLeftCell="AC1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="AO1" sqref="AO1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11825,18 +15054,24 @@
     <col min="24" max="24" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="15" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="25" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11942,8 +15177,26 @@
       <c r="AI1" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ1" t="s">
+        <v>530</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>540</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>543</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>547</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>557</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11960,16 +15213,16 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2" t="s">
         <v>174</v>
@@ -12049,8 +15302,26 @@
       <c r="AI2">
         <v>7744008734</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ2" t="s">
+        <v>531</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>541</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>544</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>548</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>558</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
